--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_16_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_16_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1454011.239420937</v>
+        <v>-1454814.973891855</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3454714.527471028</v>
+        <v>3454714.527471034</v>
       </c>
     </row>
     <row r="8">
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.052314453583677e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>288.2563092001195</v>
+        <v>288.2563092001193</v>
       </c>
       <c r="C11" t="n">
-        <v>276.2676261578013</v>
+        <v>142.9251472381419</v>
       </c>
       <c r="D11" t="n">
-        <v>267.2489302023292</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>288.9910677722348</v>
+        <v>288.9910677722346</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>308.1628838602118</v>
       </c>
       <c r="G11" t="n">
-        <v>58.83281899160258</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.7992246008864</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>47.23143320738144</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.49981158641899</v>
+        <v>70.49981158641882</v>
       </c>
       <c r="T11" t="n">
-        <v>117.7693135548877</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>231.7626864402986</v>
+        <v>231.7626864402985</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>276.3630441510022</v>
+        <v>276.363044151002</v>
       </c>
       <c r="Y11" t="n">
-        <v>287.7596419472009</v>
+        <v>287.7596419472007</v>
       </c>
     </row>
     <row r="12">
@@ -1452,13 +1452,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>108.2817313355165</v>
       </c>
       <c r="E12" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>31.50006514690482</v>
       </c>
       <c r="G12" t="n">
         <v>127.1357402208267</v>
@@ -1497,16 +1497,16 @@
         <v>40.22019530522639</v>
       </c>
       <c r="S12" t="n">
-        <v>43.75063757986538</v>
+        <v>145.5974325025848</v>
       </c>
       <c r="T12" t="n">
-        <v>83.72018023753532</v>
+        <v>185.5669751602547</v>
       </c>
       <c r="U12" t="n">
         <v>216.2897474542439</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>124.2648714034298</v>
       </c>
       <c r="W12" t="n">
         <v>238.9027100790231</v>
@@ -1515,7 +1515,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>161.4275937827437</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.87302007481661</v>
+        <v>79.87302007481644</v>
       </c>
       <c r="C13" t="n">
-        <v>66.07301492021709</v>
+        <v>66.07301492021692</v>
       </c>
       <c r="D13" t="n">
-        <v>49.69437931779548</v>
+        <v>49.69437931779531</v>
       </c>
       <c r="E13" t="n">
-        <v>48.64212917357493</v>
+        <v>48.64212917357476</v>
       </c>
       <c r="F13" t="n">
-        <v>49.10905350176124</v>
+        <v>49.10905350176107</v>
       </c>
       <c r="G13" t="n">
-        <v>65.12765644913885</v>
+        <v>65.12765644913905</v>
       </c>
       <c r="H13" t="n">
-        <v>53.65516403722795</v>
+        <v>53.65516403722778</v>
       </c>
       <c r="I13" t="n">
-        <v>33.21260037341551</v>
+        <v>33.21260037341534</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.66459153944</v>
+        <v>34.66459153943984</v>
       </c>
       <c r="S13" t="n">
-        <v>105.2627494412581</v>
+        <v>105.2627494412579</v>
       </c>
       <c r="T13" t="n">
-        <v>127.9061242409767</v>
+        <v>127.9061242409765</v>
       </c>
       <c r="U13" t="n">
-        <v>182.4575731144915</v>
+        <v>182.4575731144913</v>
       </c>
       <c r="V13" t="n">
-        <v>156.2811564744388</v>
+        <v>156.281156474442</v>
       </c>
       <c r="W13" t="n">
-        <v>181.4480425450554</v>
+        <v>181.4480425450553</v>
       </c>
       <c r="X13" t="n">
-        <v>127.0931445408586</v>
+        <v>127.0931445408584</v>
       </c>
       <c r="Y13" t="n">
-        <v>117.9680122969263</v>
+        <v>117.9680122969261</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>288.2563092001194</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>276.2676261578011</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>267.2489302023291</v>
       </c>
       <c r="E14" t="n">
-        <v>288.9910677722347</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>308.1628838602118</v>
       </c>
       <c r="G14" t="n">
-        <v>309.525221242799</v>
+        <v>309.5252212427989</v>
       </c>
       <c r="H14" t="n">
-        <v>169.1925234816405</v>
+        <v>221.7992246008864</v>
       </c>
       <c r="I14" t="n">
-        <v>47.23143320738149</v>
+        <v>47.23143320738148</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.49981158641886</v>
+        <v>70.49981158641884</v>
       </c>
       <c r="T14" t="n">
         <v>117.7693135548875</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>25.72447720368146</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>231.7626864402985</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>276.363044151002</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>287.7596419472008</v>
+        <v>287.7596419472007</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>55.97845343072873</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
@@ -1701,10 +1701,10 @@
         <v>127.1357402208267</v>
       </c>
       <c r="H15" t="n">
-        <v>95.9882358393841</v>
+        <v>66.81971653520995</v>
       </c>
       <c r="I15" t="n">
-        <v>57.18102019563577</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>40.22019530522639</v>
+        <v>40.2201953052264</v>
       </c>
       <c r="S15" t="n">
-        <v>145.5974325025848</v>
+        <v>43.75063757986523</v>
       </c>
       <c r="T15" t="n">
-        <v>99.2174356604456</v>
+        <v>185.5669751602547</v>
       </c>
       <c r="U15" t="n">
-        <v>216.2897474542439</v>
+        <v>114.4429525315243</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -1752,7 +1752,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>88.7493181641974</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.87302007481648</v>
+        <v>79.87302007481645</v>
       </c>
       <c r="C16" t="n">
-        <v>66.07301492021696</v>
+        <v>66.07301492021693</v>
       </c>
       <c r="D16" t="n">
-        <v>49.69437931779535</v>
+        <v>49.69437931779532</v>
       </c>
       <c r="E16" t="n">
-        <v>48.6421291735748</v>
+        <v>48.64212917357477</v>
       </c>
       <c r="F16" t="n">
-        <v>49.10905350176111</v>
+        <v>49.10905350176108</v>
       </c>
       <c r="G16" t="n">
-        <v>65.12765644913873</v>
+        <v>65.1276564491387</v>
       </c>
       <c r="H16" t="n">
-        <v>53.65516403722783</v>
+        <v>53.65516403722781</v>
       </c>
       <c r="I16" t="n">
-        <v>33.21260037341538</v>
+        <v>33.21260037341536</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.66459153943988</v>
+        <v>34.66459153943986</v>
       </c>
       <c r="S16" t="n">
-        <v>105.262749441258</v>
+        <v>105.2627494412579</v>
       </c>
       <c r="T16" t="n">
         <v>127.9061242409766</v>
       </c>
       <c r="U16" t="n">
-        <v>182.4575731144914</v>
+        <v>182.4575731144913</v>
       </c>
       <c r="V16" t="n">
-        <v>156.2811564744421</v>
+        <v>156.281156474442</v>
       </c>
       <c r="W16" t="n">
         <v>181.4480425450553</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>202.282347769091</v>
+        <v>202.2823477690911</v>
       </c>
       <c r="C17" t="n">
-        <v>190.2936647267728</v>
+        <v>190.29366472677</v>
       </c>
       <c r="D17" t="n">
-        <v>181.2749687713007</v>
+        <v>181.2749687713008</v>
       </c>
       <c r="E17" t="n">
-        <v>203.0171063412063</v>
+        <v>203.0171063412064</v>
       </c>
       <c r="F17" t="n">
-        <v>222.1889224291834</v>
+        <v>222.1889224291835</v>
       </c>
       <c r="G17" t="n">
-        <v>223.5512598117706</v>
+        <v>223.5512598117707</v>
       </c>
       <c r="H17" t="n">
-        <v>135.8252631698581</v>
+        <v>135.8252631698582</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>31.79535212385914</v>
+        <v>31.79535212385923</v>
       </c>
       <c r="U17" t="n">
-        <v>64.47005212821114</v>
+        <v>64.47005212821122</v>
       </c>
       <c r="V17" t="n">
-        <v>145.7887250092701</v>
+        <v>145.7887250092702</v>
       </c>
       <c r="W17" t="n">
-        <v>171.088824487227</v>
+        <v>171.0888244872271</v>
       </c>
       <c r="X17" t="n">
         <v>190.3890827199737</v>
       </c>
       <c r="Y17" t="n">
-        <v>201.7856805161724</v>
+        <v>201.7856805161725</v>
       </c>
     </row>
     <row r="18">
@@ -1935,10 +1935,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.1357402208267</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>95.9882358393841</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>30.48206221582499</v>
+        <v>40.22019530522639</v>
       </c>
       <c r="S18" t="n">
-        <v>145.5974325025848</v>
+        <v>98.30229851322626</v>
       </c>
       <c r="T18" t="n">
-        <v>185.5669751602547</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>216.2897474542439</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>16.70710413248751</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28878801022957</v>
+        <v>19.28878801022966</v>
       </c>
       <c r="T19" t="n">
-        <v>41.9321628099482</v>
+        <v>177.6154638363765</v>
       </c>
       <c r="U19" t="n">
-        <v>248.8740168423791</v>
+        <v>284.3043680372109</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>70.30719504341377</v>
       </c>
       <c r="W19" t="n">
-        <v>95.47408111402694</v>
+        <v>95.47408111402703</v>
       </c>
       <c r="X19" t="n">
-        <v>41.11918310983006</v>
+        <v>41.11918310983015</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.99405086589775</v>
+        <v>31.99405086589783</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>202.282347769091</v>
+        <v>202.2823477690911</v>
       </c>
       <c r="C20" t="n">
         <v>190.2936647267728</v>
       </c>
       <c r="D20" t="n">
-        <v>181.2749687713007</v>
+        <v>181.2749687713008</v>
       </c>
       <c r="E20" t="n">
-        <v>203.0171063412063</v>
+        <v>203.0171063412064</v>
       </c>
       <c r="F20" t="n">
-        <v>222.1889224291834</v>
+        <v>222.1889224291835</v>
       </c>
       <c r="G20" t="n">
-        <v>223.5512598117706</v>
+        <v>223.5512598117707</v>
       </c>
       <c r="H20" t="n">
-        <v>135.8252631698581</v>
+        <v>135.8252631698582</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>31.79535212385914</v>
+        <v>31.79535212385923</v>
       </c>
       <c r="U20" t="n">
-        <v>64.47005212821114</v>
+        <v>64.47005212821122</v>
       </c>
       <c r="V20" t="n">
-        <v>145.7887250092701</v>
+        <v>145.7887250092702</v>
       </c>
       <c r="W20" t="n">
-        <v>171.088824487227</v>
+        <v>171.0888244872271</v>
       </c>
       <c r="X20" t="n">
         <v>190.3890827199737</v>
       </c>
       <c r="Y20" t="n">
-        <v>201.7856805161724</v>
+        <v>201.7856805161725</v>
       </c>
     </row>
     <row r="21">
@@ -2172,10 +2172,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.1357402208267</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>48.94375449758233</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>40.22019530522639</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>145.5974325025848</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>175.8288420708541</v>
+        <v>185.5669751602547</v>
       </c>
       <c r="U21" t="n">
         <v>216.2897474542439</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>152.390405158916</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>41.3504121802749</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>136.5113864621594</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28878801022957</v>
+        <v>181.6381508804587</v>
       </c>
       <c r="T22" t="n">
-        <v>41.9321628099482</v>
+        <v>41.93216280994829</v>
       </c>
       <c r="U22" t="n">
-        <v>96.483611683463</v>
+        <v>96.48361168346308</v>
       </c>
       <c r="V22" t="n">
-        <v>70.30719504341369</v>
+        <v>70.30719504341377</v>
       </c>
       <c r="W22" t="n">
-        <v>95.47408111402694</v>
+        <v>95.47408111402703</v>
       </c>
       <c r="X22" t="n">
-        <v>41.11918310983006</v>
+        <v>41.11918310983015</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>31.99405086589783</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>202.282347769091</v>
+        <v>202.2823477690911</v>
       </c>
       <c r="C23" t="n">
         <v>190.2936647267728</v>
       </c>
       <c r="D23" t="n">
-        <v>181.2749687713007</v>
+        <v>181.2749687713008</v>
       </c>
       <c r="E23" t="n">
-        <v>203.0171063412063</v>
+        <v>203.0171063412064</v>
       </c>
       <c r="F23" t="n">
-        <v>222.1889224291834</v>
+        <v>222.1889224291835</v>
       </c>
       <c r="G23" t="n">
-        <v>223.5512598117706</v>
+        <v>223.5512598117707</v>
       </c>
       <c r="H23" t="n">
-        <v>135.8252631698581</v>
+        <v>135.8252631698582</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>31.79535212385915</v>
+        <v>31.79535212385923</v>
       </c>
       <c r="U23" t="n">
-        <v>64.47005212821114</v>
+        <v>64.47005212821122</v>
       </c>
       <c r="V23" t="n">
-        <v>145.7887250092701</v>
+        <v>145.7887250092702</v>
       </c>
       <c r="W23" t="n">
-        <v>171.088824487227</v>
+        <v>171.0888244872271</v>
       </c>
       <c r="X23" t="n">
         <v>190.3890827199737</v>
       </c>
       <c r="Y23" t="n">
-        <v>201.7856805161724</v>
+        <v>201.7856805161725</v>
       </c>
     </row>
     <row r="24">
@@ -2409,7 +2409,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.1357402208267</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>40.22019530522639</v>
       </c>
       <c r="S24" t="n">
-        <v>145.5974325025848</v>
+        <v>8.723559192356955</v>
       </c>
       <c r="T24" t="n">
-        <v>175.8288420708532</v>
+        <v>185.5669751602547</v>
       </c>
       <c r="U24" t="n">
         <v>216.2897474542439</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>155.5842475372394</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>52.74392662602383</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>16.70710413248751</v>
       </c>
       <c r="R25" t="n">
-        <v>136.5113864621594</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28878801022957</v>
+        <v>19.28878801022966</v>
       </c>
       <c r="T25" t="n">
-        <v>41.9321628099482</v>
+        <v>41.93216280994829</v>
       </c>
       <c r="U25" t="n">
-        <v>96.483611683463</v>
+        <v>96.48361168346308</v>
       </c>
       <c r="V25" t="n">
-        <v>70.30719504341369</v>
+        <v>70.30719504341377</v>
       </c>
       <c r="W25" t="n">
-        <v>95.47408111402694</v>
+        <v>95.47408111402703</v>
       </c>
       <c r="X25" t="n">
-        <v>41.11918310983006</v>
+        <v>41.11918310983015</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.99405086589775</v>
+        <v>31.99405086589783</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2561,19 @@
         <v>267.2489302023291</v>
       </c>
       <c r="E26" t="n">
-        <v>288.9910677722346</v>
+        <v>288.9910677722347</v>
       </c>
       <c r="F26" t="n">
         <v>308.1628838602118</v>
       </c>
       <c r="G26" t="n">
-        <v>309.5252212427989</v>
+        <v>309.525221242799</v>
       </c>
       <c r="H26" t="n">
-        <v>221.7992246008864</v>
+        <v>221.7992246008865</v>
       </c>
       <c r="I26" t="n">
-        <v>47.23143320738149</v>
+        <v>47.23143320738147</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.49981158641884</v>
+        <v>70.49981158641883</v>
       </c>
       <c r="T26" t="n">
         <v>117.7693135548875</v>
@@ -2621,7 +2621,7 @@
         <v>276.363044151002</v>
       </c>
       <c r="Y26" t="n">
-        <v>287.7596419472007</v>
+        <v>287.7596419472008</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2649,7 @@
         <v>127.1357402208267</v>
       </c>
       <c r="H27" t="n">
-        <v>95.98823583938412</v>
+        <v>95.9882358393841</v>
       </c>
       <c r="I27" t="n">
         <v>57.18102019563577</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>40.2201953052264</v>
+        <v>40.22019530522639</v>
       </c>
       <c r="S27" t="n">
         <v>145.5974325025848</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.87302007481645</v>
+        <v>79.87302007481647</v>
       </c>
       <c r="C28" t="n">
-        <v>66.07301492021693</v>
+        <v>66.07301492021695</v>
       </c>
       <c r="D28" t="n">
-        <v>49.69437931779532</v>
+        <v>49.69437931779534</v>
       </c>
       <c r="E28" t="n">
-        <v>48.64212917357477</v>
+        <v>48.64212917357479</v>
       </c>
       <c r="F28" t="n">
-        <v>49.10905350176108</v>
+        <v>49.1090535017611</v>
       </c>
       <c r="G28" t="n">
-        <v>65.1276564491387</v>
+        <v>65.12765644913871</v>
       </c>
       <c r="H28" t="n">
         <v>53.65516403722781</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66459153943986</v>
+        <v>34.66459153943985</v>
       </c>
       <c r="S28" t="n">
-        <v>105.2627494412579</v>
+        <v>105.262749441258</v>
       </c>
       <c r="T28" t="n">
         <v>127.9061242409766</v>
       </c>
       <c r="U28" t="n">
-        <v>182.4575731144913</v>
+        <v>182.4575731144914</v>
       </c>
       <c r="V28" t="n">
-        <v>156.281156474442</v>
+        <v>156.2811564744421</v>
       </c>
       <c r="W28" t="n">
         <v>181.4480425450553</v>
@@ -2810,7 +2810,7 @@
         <v>221.7992246008864</v>
       </c>
       <c r="I29" t="n">
-        <v>47.23143320738146</v>
+        <v>47.23143320738149</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>127.1357402208267</v>
       </c>
       <c r="H30" t="n">
-        <v>95.9882358393841</v>
+        <v>95.98823583938412</v>
       </c>
       <c r="I30" t="n">
         <v>57.18102019563577</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>40.22019530522639</v>
+        <v>40.2201953052264</v>
       </c>
       <c r="S30" t="n">
         <v>145.5974325025848</v>
@@ -2965,7 +2965,7 @@
         <v>65.1276564491387</v>
       </c>
       <c r="H31" t="n">
-        <v>53.6551640372278</v>
+        <v>53.65516403722781</v>
       </c>
       <c r="I31" t="n">
         <v>33.21260037341536</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>288.2563092001194</v>
+        <v>288.2563092001193</v>
       </c>
       <c r="C32" t="n">
-        <v>276.2676261578011</v>
+        <v>276.267626157801</v>
       </c>
       <c r="D32" t="n">
-        <v>267.2489302023291</v>
+        <v>267.248930202329</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9910677722347</v>
+        <v>288.9910677722345</v>
       </c>
       <c r="F32" t="n">
-        <v>308.1628838602118</v>
+        <v>308.1628838602117</v>
       </c>
       <c r="G32" t="n">
-        <v>309.525221242799</v>
+        <v>309.5252212427989</v>
       </c>
       <c r="H32" t="n">
-        <v>221.7992246008865</v>
+        <v>221.7992246008864</v>
       </c>
       <c r="I32" t="n">
-        <v>47.23143320738147</v>
+        <v>47.23143320738139</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.49981158641883</v>
+        <v>70.49981158641874</v>
       </c>
       <c r="T32" t="n">
-        <v>117.7693135548875</v>
+        <v>117.7693135548874</v>
       </c>
       <c r="U32" t="n">
-        <v>150.4440135592395</v>
+        <v>150.4440135592394</v>
       </c>
       <c r="V32" t="n">
-        <v>231.7626864402985</v>
+        <v>231.7626864402984</v>
       </c>
       <c r="W32" t="n">
-        <v>257.0627859182554</v>
+        <v>257.0627859182553</v>
       </c>
       <c r="X32" t="n">
-        <v>276.363044151002</v>
+        <v>276.3630441510019</v>
       </c>
       <c r="Y32" t="n">
-        <v>287.7596419472008</v>
+        <v>287.7596419472007</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3123,7 @@
         <v>127.1357402208267</v>
       </c>
       <c r="H33" t="n">
-        <v>95.9882358393841</v>
+        <v>95.98823583938412</v>
       </c>
       <c r="I33" t="n">
         <v>57.18102019563577</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>40.22019530522639</v>
+        <v>40.2201953052264</v>
       </c>
       <c r="S33" t="n">
         <v>145.5974325025848</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.87302007481647</v>
+        <v>79.87302007481635</v>
       </c>
       <c r="C34" t="n">
-        <v>66.07301492021695</v>
+        <v>66.07301492021683</v>
       </c>
       <c r="D34" t="n">
-        <v>49.69437931779534</v>
+        <v>49.69437931779522</v>
       </c>
       <c r="E34" t="n">
-        <v>48.64212917357479</v>
+        <v>48.64212917357467</v>
       </c>
       <c r="F34" t="n">
-        <v>49.1090535017611</v>
+        <v>49.10905350176098</v>
       </c>
       <c r="G34" t="n">
-        <v>65.12765644913871</v>
+        <v>65.1276564491386</v>
       </c>
       <c r="H34" t="n">
-        <v>53.65516403722781</v>
+        <v>53.65516403722771</v>
       </c>
       <c r="I34" t="n">
-        <v>33.21260037341536</v>
+        <v>33.21260037341526</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66459153943985</v>
+        <v>34.66459153943975</v>
       </c>
       <c r="S34" t="n">
-        <v>105.262749441258</v>
+        <v>105.2627494412578</v>
       </c>
       <c r="T34" t="n">
-        <v>127.9061242409766</v>
+        <v>127.9061242409765</v>
       </c>
       <c r="U34" t="n">
-        <v>182.4575731144914</v>
+        <v>182.4575731144913</v>
       </c>
       <c r="V34" t="n">
-        <v>156.2811564744421</v>
+        <v>156.281156474442</v>
       </c>
       <c r="W34" t="n">
-        <v>181.4480425450553</v>
+        <v>181.4480425450552</v>
       </c>
       <c r="X34" t="n">
-        <v>127.0931445408584</v>
+        <v>127.0931445408583</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.9680122969261</v>
+        <v>117.968012296926</v>
       </c>
     </row>
     <row r="35">
@@ -3269,13 +3269,13 @@
         <v>228.1916229939208</v>
       </c>
       <c r="D35" t="n">
-        <v>219.1729270384488</v>
+        <v>219.1729270384487</v>
       </c>
       <c r="E35" t="n">
         <v>240.9150646083543</v>
       </c>
       <c r="F35" t="n">
-        <v>260.0868806963315</v>
+        <v>260.0868806963314</v>
       </c>
       <c r="G35" t="n">
         <v>261.4492180789186</v>
@@ -3317,16 +3317,16 @@
         <v>22.42380842253849</v>
       </c>
       <c r="T35" t="n">
-        <v>69.69331039100717</v>
+        <v>69.69331039100715</v>
       </c>
       <c r="U35" t="n">
-        <v>102.3680103953592</v>
+        <v>102.3680103953591</v>
       </c>
       <c r="V35" t="n">
-        <v>183.6866832764182</v>
+        <v>183.6866832764181</v>
       </c>
       <c r="W35" t="n">
-        <v>208.9867827543751</v>
+        <v>208.986782754375</v>
       </c>
       <c r="X35" t="n">
         <v>228.2870409871217</v>
@@ -3360,7 +3360,7 @@
         <v>127.1357402208267</v>
       </c>
       <c r="H36" t="n">
-        <v>95.9882358393841</v>
+        <v>95.98823583938412</v>
       </c>
       <c r="I36" t="n">
         <v>57.18102019563577</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>40.22019530522639</v>
+        <v>40.2201953052264</v>
       </c>
       <c r="S36" t="n">
         <v>145.5974325025848</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.79701691093612</v>
+        <v>31.79701691093609</v>
       </c>
       <c r="C37" t="n">
-        <v>17.9970117563366</v>
+        <v>17.99701175633658</v>
       </c>
       <c r="D37" t="n">
-        <v>1.618376153914994</v>
+        <v>1.618376153914966</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5661260096944432</v>
+        <v>0.5661260096944147</v>
       </c>
       <c r="F37" t="n">
-        <v>1.033050337880752</v>
+        <v>1.033050337880724</v>
       </c>
       <c r="G37" t="n">
-        <v>17.05165328525838</v>
+        <v>17.05165328525835</v>
       </c>
       <c r="H37" t="n">
-        <v>5.579160873347472</v>
+        <v>5.579160873347445</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.1867462773776</v>
+        <v>57.18674627737757</v>
       </c>
       <c r="T37" t="n">
-        <v>79.83012107709622</v>
+        <v>79.83012107709619</v>
       </c>
       <c r="U37" t="n">
         <v>134.381569950611</v>
@@ -3484,13 +3484,13 @@
         <v>108.2051533105617</v>
       </c>
       <c r="W37" t="n">
-        <v>133.372039381175</v>
+        <v>133.3720393811749</v>
       </c>
       <c r="X37" t="n">
-        <v>79.01714137697809</v>
+        <v>79.01714137697806</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.89200913304578</v>
+        <v>69.89200913304575</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>240.1803060362389</v>
+        <v>240.180306036239</v>
       </c>
       <c r="C38" t="n">
-        <v>228.1916229939206</v>
+        <v>228.1916229939208</v>
       </c>
       <c r="D38" t="n">
-        <v>219.1729270384486</v>
+        <v>219.1729270384487</v>
       </c>
       <c r="E38" t="n">
-        <v>240.9150646083541</v>
+        <v>240.9150646083543</v>
       </c>
       <c r="F38" t="n">
-        <v>260.0868806963313</v>
+        <v>260.0868806963314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.4492180789184</v>
+        <v>261.4492180789186</v>
       </c>
       <c r="H38" t="n">
-        <v>173.7232214370059</v>
+        <v>173.7232214370061</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>22.42380842253831</v>
+        <v>22.42380842253849</v>
       </c>
       <c r="T38" t="n">
-        <v>69.693310391007</v>
+        <v>69.69331039100715</v>
       </c>
       <c r="U38" t="n">
-        <v>102.368010395359</v>
+        <v>102.3680103953591</v>
       </c>
       <c r="V38" t="n">
-        <v>183.686683276418</v>
+        <v>183.6866832764181</v>
       </c>
       <c r="W38" t="n">
-        <v>208.9867827543749</v>
+        <v>208.986782754375</v>
       </c>
       <c r="X38" t="n">
-        <v>228.2870409871215</v>
+        <v>228.2870409871217</v>
       </c>
       <c r="Y38" t="n">
-        <v>239.6836387833203</v>
+        <v>239.6836387833204</v>
       </c>
     </row>
     <row r="39">
@@ -3597,7 +3597,7 @@
         <v>127.1357402208267</v>
       </c>
       <c r="H39" t="n">
-        <v>95.9882358393841</v>
+        <v>95.98823583938412</v>
       </c>
       <c r="I39" t="n">
         <v>57.18102019563577</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>40.22019530522639</v>
+        <v>40.2201953052264</v>
       </c>
       <c r="S39" t="n">
         <v>145.5974325025848</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.79701691093595</v>
+        <v>31.79701691093609</v>
       </c>
       <c r="C40" t="n">
-        <v>17.99701175633643</v>
+        <v>17.99701175633658</v>
       </c>
       <c r="D40" t="n">
-        <v>1.618376153914824</v>
+        <v>1.618376153914966</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5661260096942726</v>
+        <v>0.5661260096944147</v>
       </c>
       <c r="F40" t="n">
-        <v>1.033050337880582</v>
+        <v>1.033050337880724</v>
       </c>
       <c r="G40" t="n">
-        <v>17.0516532852582</v>
+        <v>17.05165328525835</v>
       </c>
       <c r="H40" t="n">
-        <v>5.579160873347302</v>
+        <v>5.579160873347445</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.18674627737743</v>
+        <v>57.18674627737757</v>
       </c>
       <c r="T40" t="n">
-        <v>79.83012107709605</v>
+        <v>79.83012107709619</v>
       </c>
       <c r="U40" t="n">
-        <v>134.3815699506108</v>
+        <v>134.381569950611</v>
       </c>
       <c r="V40" t="n">
-        <v>108.2051533105615</v>
+        <v>108.2051533105617</v>
       </c>
       <c r="W40" t="n">
-        <v>133.3720393811748</v>
+        <v>133.3720393811749</v>
       </c>
       <c r="X40" t="n">
-        <v>79.01714137697792</v>
+        <v>79.01714137697806</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.8920091330456</v>
+        <v>69.89200913304575</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3740,22 @@
         <v>240.1803060362389</v>
       </c>
       <c r="C41" t="n">
-        <v>228.1916229939206</v>
+        <v>228.1916229939207</v>
       </c>
       <c r="D41" t="n">
         <v>219.1729270384486</v>
       </c>
       <c r="E41" t="n">
-        <v>240.9150646083541</v>
+        <v>240.9150646083542</v>
       </c>
       <c r="F41" t="n">
-        <v>260.0868806963313</v>
+        <v>260.0868806963314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.4492180789184</v>
+        <v>261.4492180789185</v>
       </c>
       <c r="H41" t="n">
-        <v>173.7232214370059</v>
+        <v>173.723221437006</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>22.42380842253833</v>
+        <v>22.4238084225384</v>
       </c>
       <c r="T41" t="n">
-        <v>69.693310391007</v>
+        <v>69.69331039100706</v>
       </c>
       <c r="U41" t="n">
-        <v>102.368010395359</v>
+        <v>102.3680103953591</v>
       </c>
       <c r="V41" t="n">
-        <v>183.686683276418</v>
+        <v>183.6866832764181</v>
       </c>
       <c r="W41" t="n">
-        <v>208.9867827543749</v>
+        <v>208.986782754375</v>
       </c>
       <c r="X41" t="n">
-        <v>228.2870409871215</v>
+        <v>228.2870409871216</v>
       </c>
       <c r="Y41" t="n">
         <v>239.6836387833203</v>
@@ -3834,7 +3834,7 @@
         <v>127.1357402208267</v>
       </c>
       <c r="H42" t="n">
-        <v>95.9882358393841</v>
+        <v>95.98823583938412</v>
       </c>
       <c r="I42" t="n">
         <v>57.18102019563577</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>40.22019530522639</v>
+        <v>40.2201953052264</v>
       </c>
       <c r="S42" t="n">
         <v>145.5974325025848</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.79701691093595</v>
+        <v>31.79701691093601</v>
       </c>
       <c r="C43" t="n">
-        <v>17.99701175633643</v>
+        <v>17.99701175633649</v>
       </c>
       <c r="D43" t="n">
-        <v>1.618376153914824</v>
+        <v>1.61837615391488</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5661260096942726</v>
+        <v>0.5661260096943295</v>
       </c>
       <c r="F43" t="n">
-        <v>1.033050337880582</v>
+        <v>1.033050337880638</v>
       </c>
       <c r="G43" t="n">
-        <v>17.0516532852582</v>
+        <v>17.05165328525826</v>
       </c>
       <c r="H43" t="n">
-        <v>5.579160873347302</v>
+        <v>5.57916087334736</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.18674627737743</v>
+        <v>57.18674627737749</v>
       </c>
       <c r="T43" t="n">
-        <v>79.83012107709605</v>
+        <v>79.83012107709611</v>
       </c>
       <c r="U43" t="n">
-        <v>134.3815699506108</v>
+        <v>134.3815699506109</v>
       </c>
       <c r="V43" t="n">
-        <v>108.2051533105615</v>
+        <v>108.2051533105616</v>
       </c>
       <c r="W43" t="n">
-        <v>133.3720393811748</v>
+        <v>133.3720393811749</v>
       </c>
       <c r="X43" t="n">
-        <v>79.01714137697792</v>
+        <v>79.01714137697797</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.8920091330456</v>
+        <v>69.89200913304566</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>22.42380842253846</v>
+        <v>22.42380842253849</v>
       </c>
       <c r="T44" t="n">
         <v>69.69331039100715</v>
@@ -4071,7 +4071,7 @@
         <v>127.1357402208267</v>
       </c>
       <c r="H45" t="n">
-        <v>95.9882358393841</v>
+        <v>95.98823583938412</v>
       </c>
       <c r="I45" t="n">
         <v>57.18102019563577</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>40.22019530522639</v>
+        <v>40.2201953052264</v>
       </c>
       <c r="S45" t="n">
         <v>145.5974325025848</v>
@@ -4150,7 +4150,7 @@
         <v>17.05165328525835</v>
       </c>
       <c r="H46" t="n">
-        <v>5.579160873347444</v>
+        <v>5.579160873347445</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.390176862514636e-12</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -4817,37 +4817,37 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.390176862514636e-12</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.390176862514636e-12</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.304645363437885e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4893,37 +4893,37 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>9.329426120530116e-13</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.390176862514636e-12</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.380893155153973e-12</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>9.143751973316846e-13</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>9.143751973316846e-13</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>9.143751973316846e-13</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>9.143751973316846e-13</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -4972,31 +4972,31 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.380893155153973e-12</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.380893155153973e-12</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.380893155153973e-12</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.380893155153973e-12</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>9.143751973316846e-13</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>9.143751973316846e-13</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>944.9481130298561</v>
+        <v>1063.907015610552</v>
       </c>
       <c r="C11" t="n">
-        <v>665.8899047896527</v>
+        <v>919.5381800164688</v>
       </c>
       <c r="D11" t="n">
-        <v>395.9414904438656</v>
+        <v>919.5381800164688</v>
       </c>
       <c r="E11" t="n">
-        <v>104.0313209769619</v>
+        <v>627.6280105495651</v>
       </c>
       <c r="F11" t="n">
-        <v>104.0313209769619</v>
+        <v>316.352370286725</v>
       </c>
       <c r="G11" t="n">
-        <v>44.60423108645426</v>
+        <v>316.352370286725</v>
       </c>
       <c r="H11" t="n">
-        <v>44.60423108645426</v>
+        <v>92.31274947774864</v>
       </c>
       <c r="I11" t="n">
-        <v>44.60423108645426</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="J11" t="n">
-        <v>136.7620154122025</v>
+        <v>164.575219004934</v>
       </c>
       <c r="K11" t="n">
-        <v>448.8006449087111</v>
+        <v>476.6138485014426</v>
       </c>
       <c r="L11" t="n">
-        <v>885.8821640413424</v>
+        <v>476.6138485014426</v>
       </c>
       <c r="M11" t="n">
-        <v>885.8821640413424</v>
+        <v>885.882164041342</v>
       </c>
       <c r="N11" t="n">
         <v>1365.067356226538</v>
       </c>
       <c r="O11" t="n">
-        <v>1765.305355793027</v>
+        <v>1765.305355793026</v>
       </c>
       <c r="P11" t="n">
         <v>2074.741768728586</v>
       </c>
       <c r="Q11" t="n">
-        <v>2230.211554322713</v>
+        <v>2230.211554322712</v>
       </c>
       <c r="R11" t="n">
-        <v>2230.211554322713</v>
+        <v>2230.211554322712</v>
       </c>
       <c r="S11" t="n">
         <v>2158.99962342734</v>
       </c>
       <c r="T11" t="n">
-        <v>2040.040720846645</v>
+        <v>2158.99962342734</v>
       </c>
       <c r="U11" t="n">
-        <v>2040.040720846645</v>
+        <v>2158.99962342734</v>
       </c>
       <c r="V11" t="n">
-        <v>1805.936997169576</v>
+        <v>1924.895899750271</v>
       </c>
       <c r="W11" t="n">
-        <v>1805.936997169576</v>
+        <v>1924.895899750271</v>
       </c>
       <c r="X11" t="n">
-        <v>1526.782407118058</v>
+        <v>1645.741309698754</v>
       </c>
       <c r="Y11" t="n">
-        <v>1236.116102120886</v>
+        <v>1355.075004701581</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>852.2461024447144</v>
+        <v>719.9074012054284</v>
       </c>
       <c r="C12" t="n">
-        <v>690.5424296856692</v>
+        <v>558.2037284463831</v>
       </c>
       <c r="D12" t="n">
-        <v>551.7037926758812</v>
+        <v>448.8282422488917</v>
       </c>
       <c r="E12" t="n">
-        <v>404.6757827327524</v>
+        <v>301.800232305763</v>
       </c>
       <c r="F12" t="n">
         <v>269.9819846826268</v>
@@ -5112,58 +5112,58 @@
         <v>141.5620450656301</v>
       </c>
       <c r="H12" t="n">
-        <v>44.60423108645426</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="I12" t="n">
-        <v>44.60423108645426</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="J12" t="n">
-        <v>133.4304364107841</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="K12" t="n">
-        <v>133.4304364107841</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="L12" t="n">
-        <v>564.915889141344</v>
+        <v>476.0896838170141</v>
       </c>
       <c r="M12" t="n">
-        <v>854.2359537913435</v>
+        <v>1017.705552068992</v>
       </c>
       <c r="N12" t="n">
-        <v>1406.213313486215</v>
+        <v>1569.682911763863</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.366677447447</v>
+        <v>2033.836275725096</v>
       </c>
       <c r="P12" t="n">
-        <v>2230.211554322713</v>
+        <v>2033.836275725096</v>
       </c>
       <c r="Q12" t="n">
-        <v>2230.211554322713</v>
+        <v>2230.211554322712</v>
       </c>
       <c r="R12" t="n">
-        <v>2189.585094418444</v>
+        <v>2189.585094418443</v>
       </c>
       <c r="S12" t="n">
-        <v>2145.392531206458</v>
+        <v>2042.516980779469</v>
       </c>
       <c r="T12" t="n">
-        <v>2060.826692582686</v>
+        <v>1855.075591728706</v>
       </c>
       <c r="U12" t="n">
-        <v>1842.352200204662</v>
+        <v>1636.601099350682</v>
       </c>
       <c r="V12" t="n">
-        <v>1613.956577652996</v>
+        <v>1511.081027226006</v>
       </c>
       <c r="W12" t="n">
-        <v>1372.640708886306</v>
+        <v>1269.765158459316</v>
       </c>
       <c r="X12" t="n">
-        <v>1174.7237207641</v>
+        <v>1071.848170337111</v>
       </c>
       <c r="Y12" t="n">
-        <v>1011.665545225975</v>
+        <v>879.3268439866894</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.810289443152</v>
+        <v>413.8102894431515</v>
       </c>
       <c r="C13" t="n">
-        <v>347.0698703318216</v>
+        <v>347.0698703318213</v>
       </c>
       <c r="D13" t="n">
-        <v>296.8735275865736</v>
+        <v>296.8735275865735</v>
       </c>
       <c r="E13" t="n">
         <v>247.7400637748818</v>
       </c>
       <c r="F13" t="n">
-        <v>198.1349592276482</v>
+        <v>198.1349592276484</v>
       </c>
       <c r="G13" t="n">
-        <v>132.3494476628617</v>
+        <v>132.3494476628615</v>
       </c>
       <c r="H13" t="n">
-        <v>78.15231227172239</v>
+        <v>78.15231227172228</v>
       </c>
       <c r="I13" t="n">
-        <v>44.60423108645426</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="J13" t="n">
-        <v>104.4956500014743</v>
+        <v>104.4956500014745</v>
       </c>
       <c r="K13" t="n">
-        <v>268.3847607216638</v>
+        <v>268.3847607216642</v>
       </c>
       <c r="L13" t="n">
-        <v>507.5144684269954</v>
+        <v>507.514468426996</v>
       </c>
       <c r="M13" t="n">
-        <v>766.0796571512049</v>
+        <v>766.0796571512057</v>
       </c>
       <c r="N13" t="n">
-        <v>1024.128673331463</v>
+        <v>1024.128673331464</v>
       </c>
       <c r="O13" t="n">
-        <v>1259.257200371845</v>
+        <v>1259.257200371846</v>
       </c>
       <c r="P13" t="n">
-        <v>1453.718373609572</v>
+        <v>1453.718373609574</v>
       </c>
       <c r="Q13" t="n">
-        <v>1538.006667491902</v>
+        <v>1538.006667491903</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.991928563174</v>
+        <v>1502.991928563176</v>
       </c>
       <c r="S13" t="n">
-        <v>1396.66591902655</v>
+        <v>1396.665919026552</v>
       </c>
       <c r="T13" t="n">
-        <v>1267.467813732634</v>
+        <v>1267.467813732636</v>
       </c>
       <c r="U13" t="n">
-        <v>1083.167234829107</v>
+        <v>1083.167234829109</v>
       </c>
       <c r="V13" t="n">
-        <v>925.3074808145228</v>
+        <v>925.3074808145216</v>
       </c>
       <c r="W13" t="n">
-        <v>742.0266297589112</v>
+        <v>742.0266297589102</v>
       </c>
       <c r="X13" t="n">
-        <v>613.6497160812762</v>
+        <v>613.6497160812754</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.4901077005426</v>
+        <v>494.4901077005419</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1179.051836706926</v>
+        <v>1489.286371764645</v>
       </c>
       <c r="C14" t="n">
-        <v>1179.051836706926</v>
+        <v>1210.228163524441</v>
       </c>
       <c r="D14" t="n">
-        <v>1179.051836706926</v>
+        <v>940.2797491786548</v>
       </c>
       <c r="E14" t="n">
-        <v>887.1416672400226</v>
+        <v>940.2797491786548</v>
       </c>
       <c r="F14" t="n">
-        <v>575.8660269771824</v>
+        <v>629.0041089158146</v>
       </c>
       <c r="G14" t="n">
-        <v>263.2142883480925</v>
+        <v>316.3523702867249</v>
       </c>
       <c r="H14" t="n">
-        <v>92.3127494777487</v>
+        <v>92.31274947774867</v>
       </c>
       <c r="I14" t="n">
-        <v>44.60423108645426</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="J14" t="n">
-        <v>164.575219004934</v>
+        <v>81.35646955628926</v>
       </c>
       <c r="K14" t="n">
-        <v>164.575219004934</v>
+        <v>393.3950990527978</v>
       </c>
       <c r="L14" t="n">
         <v>393.3950990527978</v>
       </c>
       <c r="M14" t="n">
-        <v>885.8821640413424</v>
+        <v>885.8821640413423</v>
       </c>
       <c r="N14" t="n">
         <v>1365.067356226538</v>
       </c>
       <c r="O14" t="n">
-        <v>1765.305355793027</v>
+        <v>1765.305355793026</v>
       </c>
       <c r="P14" t="n">
         <v>2074.741768728586</v>
       </c>
       <c r="Q14" t="n">
-        <v>2230.211554322713</v>
+        <v>2230.211554322712</v>
       </c>
       <c r="R14" t="n">
-        <v>2230.211554322713</v>
+        <v>2230.211554322712</v>
       </c>
       <c r="S14" t="n">
         <v>2158.99962342734</v>
       </c>
       <c r="T14" t="n">
-        <v>2040.040720846646</v>
+        <v>2040.040720846645</v>
       </c>
       <c r="U14" t="n">
-        <v>2040.040720846646</v>
+        <v>2014.056400438886</v>
       </c>
       <c r="V14" t="n">
-        <v>2040.040720846646</v>
+        <v>1779.952676761817</v>
       </c>
       <c r="W14" t="n">
-        <v>2040.040720846646</v>
+        <v>1779.952676761817</v>
       </c>
       <c r="X14" t="n">
-        <v>1760.886130795129</v>
+        <v>1779.952676761817</v>
       </c>
       <c r="Y14" t="n">
-        <v>1470.219825797956</v>
+        <v>1489.286371764645</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>910.0047087029324</v>
+        <v>822.7829516324173</v>
       </c>
       <c r="C15" t="n">
-        <v>748.3010359438871</v>
+        <v>661.079278873372</v>
       </c>
       <c r="D15" t="n">
-        <v>609.4623989340992</v>
+        <v>522.2406418635841</v>
       </c>
       <c r="E15" t="n">
-        <v>462.4343889909704</v>
+        <v>375.2126319204553</v>
       </c>
       <c r="F15" t="n">
-        <v>327.7405909408448</v>
+        <v>240.5188338703296</v>
       </c>
       <c r="G15" t="n">
-        <v>199.3206513238481</v>
+        <v>112.098894253333</v>
       </c>
       <c r="H15" t="n">
-        <v>102.3628373446722</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="I15" t="n">
-        <v>44.60423108645426</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="J15" t="n">
-        <v>44.60423108645426</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="K15" t="n">
-        <v>44.60423108645426</v>
+        <v>322.9289830114116</v>
       </c>
       <c r="L15" t="n">
-        <v>476.0896838170141</v>
+        <v>754.4144357419715</v>
       </c>
       <c r="M15" t="n">
-        <v>657.8606751937268</v>
+        <v>1306.391795436843</v>
       </c>
       <c r="N15" t="n">
-        <v>1209.838034888598</v>
+        <v>1306.391795436843</v>
       </c>
       <c r="O15" t="n">
-        <v>1673.991398849831</v>
+        <v>1770.545159398075</v>
       </c>
       <c r="P15" t="n">
-        <v>2033.836275725096</v>
+        <v>2130.390036273341</v>
       </c>
       <c r="Q15" t="n">
-        <v>2230.211554322713</v>
+        <v>2230.211554322712</v>
       </c>
       <c r="R15" t="n">
-        <v>2189.585094418444</v>
+        <v>2189.585094418443</v>
       </c>
       <c r="S15" t="n">
-        <v>2042.516980779469</v>
+        <v>2145.392531206458</v>
       </c>
       <c r="T15" t="n">
-        <v>1942.297348799221</v>
+        <v>1957.951142155696</v>
       </c>
       <c r="U15" t="n">
-        <v>1723.822856421197</v>
+        <v>1842.352200204661</v>
       </c>
       <c r="V15" t="n">
-        <v>1495.427233869531</v>
+        <v>1613.956577652995</v>
       </c>
       <c r="W15" t="n">
-        <v>1254.111365102841</v>
+        <v>1372.640708886305</v>
       </c>
       <c r="X15" t="n">
-        <v>1056.194376980636</v>
+        <v>1174.723720764099</v>
       </c>
       <c r="Y15" t="n">
-        <v>966.5486010572038</v>
+        <v>982.2023944136782</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.8102894431509</v>
+        <v>413.8102894431515</v>
       </c>
       <c r="C16" t="n">
-        <v>347.0698703318207</v>
+        <v>347.0698703318212</v>
       </c>
       <c r="D16" t="n">
-        <v>296.8735275865728</v>
+        <v>296.8735275865734</v>
       </c>
       <c r="E16" t="n">
-        <v>247.7400637748811</v>
+        <v>247.7400637748817</v>
       </c>
       <c r="F16" t="n">
-        <v>198.1349592276476</v>
+        <v>198.1349592276481</v>
       </c>
       <c r="G16" t="n">
-        <v>132.3494476628615</v>
+        <v>132.3494476628616</v>
       </c>
       <c r="H16" t="n">
-        <v>78.15231227172232</v>
+        <v>78.15231227172228</v>
       </c>
       <c r="I16" t="n">
-        <v>44.60423108645426</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="J16" t="n">
-        <v>104.4956500014745</v>
+        <v>104.4956500014744</v>
       </c>
       <c r="K16" t="n">
         <v>268.3847607216642</v>
@@ -5443,13 +5443,13 @@
         <v>507.5144684269959</v>
       </c>
       <c r="M16" t="n">
-        <v>766.0796571512055</v>
+        <v>766.0796571512053</v>
       </c>
       <c r="N16" t="n">
-        <v>1024.128673331464</v>
+        <v>1024.128673331463</v>
       </c>
       <c r="O16" t="n">
-        <v>1259.257200371846</v>
+        <v>1259.257200371845</v>
       </c>
       <c r="P16" t="n">
         <v>1453.718373609573</v>
@@ -5461,7 +5461,7 @@
         <v>1502.991928563176</v>
       </c>
       <c r="S16" t="n">
-        <v>1396.665919026551</v>
+        <v>1396.665919026552</v>
       </c>
       <c r="T16" t="n">
         <v>1267.467813732636</v>
@@ -5470,16 +5470,16 @@
         <v>1083.167234829109</v>
       </c>
       <c r="V16" t="n">
-        <v>925.3074808145211</v>
+        <v>925.3074808145213</v>
       </c>
       <c r="W16" t="n">
-        <v>742.0266297589096</v>
+        <v>742.0266297589101</v>
       </c>
       <c r="X16" t="n">
-        <v>613.6497160812748</v>
+        <v>613.6497160812753</v>
       </c>
       <c r="Y16" t="n">
-        <v>494.4901077005413</v>
+        <v>494.4901077005418</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1212.433711137052</v>
+        <v>1212.433711137051</v>
       </c>
       <c r="C17" t="n">
-        <v>1020.217888180716</v>
+        <v>1020.217888180717</v>
       </c>
       <c r="D17" t="n">
-        <v>837.111859118796</v>
+        <v>837.1118591187972</v>
       </c>
       <c r="E17" t="n">
-        <v>632.0440749357593</v>
+        <v>632.0440749357604</v>
       </c>
       <c r="F17" t="n">
-        <v>407.6108199567862</v>
+        <v>407.6108199567871</v>
       </c>
       <c r="G17" t="n">
         <v>181.8014666115635</v>
       </c>
       <c r="H17" t="n">
-        <v>44.60423108645426</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="I17" t="n">
-        <v>44.60423108645426</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="J17" t="n">
-        <v>164.575219004934</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="K17" t="n">
-        <v>476.6138485014426</v>
+        <v>356.6428605829628</v>
       </c>
       <c r="L17" t="n">
-        <v>913.6953676340739</v>
+        <v>793.7243797155942</v>
       </c>
       <c r="M17" t="n">
-        <v>1406.182432622619</v>
+        <v>885.882164041342</v>
       </c>
       <c r="N17" t="n">
-        <v>1520.537141820665</v>
+        <v>1365.067356226538</v>
       </c>
       <c r="O17" t="n">
-        <v>1920.775141387153</v>
+        <v>1765.305355793026</v>
       </c>
       <c r="P17" t="n">
-        <v>2230.211554322713</v>
+        <v>2074.741768728586</v>
       </c>
       <c r="Q17" t="n">
-        <v>2230.211554322713</v>
+        <v>2230.211554322712</v>
       </c>
       <c r="R17" t="n">
-        <v>2230.211554322713</v>
+        <v>2230.211554322712</v>
       </c>
       <c r="S17" t="n">
-        <v>2230.211554322713</v>
+        <v>2230.211554322712</v>
       </c>
       <c r="T17" t="n">
         <v>2198.095037025885</v>
       </c>
       <c r="U17" t="n">
-        <v>2132.973772249915</v>
+        <v>2132.973772249914</v>
       </c>
       <c r="V17" t="n">
-        <v>1985.712433856713</v>
+        <v>1985.712433856712</v>
       </c>
       <c r="W17" t="n">
-        <v>1812.89543942517</v>
+        <v>1812.895439425169</v>
       </c>
       <c r="X17" t="n">
-        <v>1620.58323465752</v>
+        <v>1620.583234657519</v>
       </c>
       <c r="Y17" t="n">
-        <v>1416.759314944215</v>
+        <v>1416.759314944213</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>626.8683488485419</v>
+        <v>852.2461024447144</v>
       </c>
       <c r="C18" t="n">
-        <v>465.1646760894967</v>
+        <v>690.5424296856692</v>
       </c>
       <c r="D18" t="n">
-        <v>326.3260390797087</v>
+        <v>551.7037926758812</v>
       </c>
       <c r="E18" t="n">
-        <v>179.2980291365799</v>
+        <v>404.6757827327524</v>
       </c>
       <c r="F18" t="n">
-        <v>44.60423108645426</v>
+        <v>269.9819846826268</v>
       </c>
       <c r="G18" t="n">
-        <v>44.60423108645426</v>
+        <v>141.5620450656301</v>
       </c>
       <c r="H18" t="n">
-        <v>44.60423108645426</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="I18" t="n">
-        <v>44.60423108645426</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="J18" t="n">
-        <v>44.60423108645426</v>
+        <v>133.4304364107841</v>
       </c>
       <c r="K18" t="n">
-        <v>302.2585940964721</v>
+        <v>411.7551883357414</v>
       </c>
       <c r="L18" t="n">
-        <v>302.2585940964721</v>
+        <v>843.2406410663014</v>
       </c>
       <c r="M18" t="n">
-        <v>854.2359537913435</v>
+        <v>1209.838034888598</v>
       </c>
       <c r="N18" t="n">
-        <v>1406.213313486215</v>
+        <v>1209.838034888598</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.366677447447</v>
+        <v>1673.99139884983</v>
       </c>
       <c r="P18" t="n">
-        <v>2230.211554322713</v>
+        <v>2033.836275725096</v>
       </c>
       <c r="Q18" t="n">
-        <v>2230.211554322713</v>
+        <v>2230.211554322712</v>
       </c>
       <c r="R18" t="n">
-        <v>2199.421592488546</v>
+        <v>2189.585094418443</v>
       </c>
       <c r="S18" t="n">
-        <v>2052.353478849572</v>
+        <v>2090.289843394982</v>
       </c>
       <c r="T18" t="n">
-        <v>1864.912089798809</v>
+        <v>2090.289843394982</v>
       </c>
       <c r="U18" t="n">
-        <v>1646.437597420785</v>
+        <v>1871.815351016958</v>
       </c>
       <c r="V18" t="n">
-        <v>1418.041974869119</v>
+        <v>1643.419728465292</v>
       </c>
       <c r="W18" t="n">
-        <v>1176.726106102429</v>
+        <v>1402.103859698602</v>
       </c>
       <c r="X18" t="n">
-        <v>978.809117980224</v>
+        <v>1204.186871576396</v>
       </c>
       <c r="Y18" t="n">
-        <v>786.2877916298028</v>
+        <v>1011.665545225975</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.60423108645426</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="C19" t="n">
-        <v>44.60423108645426</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="D19" t="n">
-        <v>44.60423108645426</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="E19" t="n">
-        <v>44.60423108645426</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="F19" t="n">
-        <v>44.60423108645426</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="G19" t="n">
-        <v>44.60423108645426</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="H19" t="n">
-        <v>44.60423108645426</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="I19" t="n">
-        <v>44.60423108645426</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="J19" t="n">
-        <v>44.60423108645426</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="K19" t="n">
         <v>107.6650148331516</v>
@@ -5692,31 +5692,31 @@
         <v>788.856992853599</v>
       </c>
       <c r="Q19" t="n">
-        <v>788.856992853599</v>
+        <v>771.9811300935106</v>
       </c>
       <c r="R19" t="n">
-        <v>788.856992853599</v>
+        <v>771.9811300935106</v>
       </c>
       <c r="S19" t="n">
-        <v>769.3733686008418</v>
+        <v>752.4975058407534</v>
       </c>
       <c r="T19" t="n">
-        <v>727.0176485907931</v>
+        <v>573.0879464100701</v>
       </c>
       <c r="U19" t="n">
-        <v>475.6297527904102</v>
+        <v>285.9118170795541</v>
       </c>
       <c r="V19" t="n">
-        <v>214.8944483488328</v>
+        <v>214.8944483488331</v>
       </c>
       <c r="W19" t="n">
-        <v>118.4559825770884</v>
+        <v>118.4559825770886</v>
       </c>
       <c r="X19" t="n">
-        <v>76.92145418332066</v>
+        <v>76.92145418332075</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.60423108645426</v>
+        <v>44.60423108645425</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1212.433711137053</v>
+        <v>1212.433711137052</v>
       </c>
       <c r="C20" t="n">
-        <v>1020.217888180716</v>
+        <v>1020.217888180715</v>
       </c>
       <c r="D20" t="n">
-        <v>837.1118591187965</v>
+        <v>837.1118591187953</v>
       </c>
       <c r="E20" t="n">
-        <v>632.0440749357598</v>
+        <v>632.0440749357585</v>
       </c>
       <c r="F20" t="n">
-        <v>407.6108199567867</v>
+        <v>407.6108199567853</v>
       </c>
       <c r="G20" t="n">
         <v>181.8014666115635</v>
       </c>
       <c r="H20" t="n">
-        <v>44.60423108645428</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="I20" t="n">
-        <v>44.60423108645428</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="J20" t="n">
-        <v>123.4601426088545</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="K20" t="n">
-        <v>435.4987721053631</v>
+        <v>356.6428605829628</v>
       </c>
       <c r="L20" t="n">
-        <v>872.5802912379944</v>
+        <v>393.3950990527974</v>
       </c>
       <c r="M20" t="n">
-        <v>1365.067356226539</v>
+        <v>885.882164041342</v>
       </c>
       <c r="N20" t="n">
-        <v>1365.067356226539</v>
+        <v>1365.067356226538</v>
       </c>
       <c r="O20" t="n">
-        <v>1765.305355793028</v>
+        <v>1765.305355793026</v>
       </c>
       <c r="P20" t="n">
-        <v>2074.741768728587</v>
+        <v>2074.741768728586</v>
       </c>
       <c r="Q20" t="n">
-        <v>2230.211554322714</v>
+        <v>2230.211554322712</v>
       </c>
       <c r="R20" t="n">
-        <v>2230.211554322714</v>
+        <v>2230.211554322712</v>
       </c>
       <c r="S20" t="n">
-        <v>2230.211554322714</v>
+        <v>2230.211554322712</v>
       </c>
       <c r="T20" t="n">
         <v>2198.095037025886</v>
       </c>
       <c r="U20" t="n">
-        <v>2132.973772249916</v>
+        <v>2132.973772249915</v>
       </c>
       <c r="V20" t="n">
-        <v>1985.712433856714</v>
+        <v>1985.712433856713</v>
       </c>
       <c r="W20" t="n">
-        <v>1812.895439425171</v>
+        <v>1812.89543942517</v>
       </c>
       <c r="X20" t="n">
-        <v>1620.583234657521</v>
+        <v>1620.58323465752</v>
       </c>
       <c r="Y20" t="n">
-        <v>1416.759314944215</v>
+        <v>1416.759314944214</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>626.8683488485419</v>
+        <v>804.7264243216823</v>
       </c>
       <c r="C21" t="n">
-        <v>465.1646760894967</v>
+        <v>643.022751562637</v>
       </c>
       <c r="D21" t="n">
-        <v>326.3260390797087</v>
+        <v>504.1841145528491</v>
       </c>
       <c r="E21" t="n">
-        <v>179.2980291365799</v>
+        <v>357.1561046097203</v>
       </c>
       <c r="F21" t="n">
-        <v>44.60423108645428</v>
+        <v>222.4623065595947</v>
       </c>
       <c r="G21" t="n">
-        <v>44.60423108645428</v>
+        <v>94.04236694259802</v>
       </c>
       <c r="H21" t="n">
-        <v>44.60423108645428</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="I21" t="n">
-        <v>44.60423108645428</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="J21" t="n">
-        <v>133.4304364107841</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="K21" t="n">
-        <v>411.7551883357415</v>
+        <v>322.9289830114116</v>
       </c>
       <c r="L21" t="n">
-        <v>843.2406410663014</v>
+        <v>754.4144357419715</v>
       </c>
       <c r="M21" t="n">
-        <v>1395.218000761173</v>
+        <v>1306.391795436843</v>
       </c>
       <c r="N21" t="n">
-        <v>1947.195360456045</v>
+        <v>1858.369155131714</v>
       </c>
       <c r="O21" t="n">
-        <v>2033.836275725097</v>
+        <v>1858.369155131714</v>
       </c>
       <c r="P21" t="n">
-        <v>2033.836275725097</v>
+        <v>2218.21403200698</v>
       </c>
       <c r="Q21" t="n">
-        <v>2230.211554322714</v>
+        <v>2230.211554322712</v>
       </c>
       <c r="R21" t="n">
-        <v>2189.585094418444</v>
+        <v>2230.211554322712</v>
       </c>
       <c r="S21" t="n">
-        <v>2042.51698077947</v>
+        <v>2230.211554322712</v>
       </c>
       <c r="T21" t="n">
-        <v>1864.912089798809</v>
+        <v>2042.77016527195</v>
       </c>
       <c r="U21" t="n">
-        <v>1646.437597420785</v>
+        <v>1824.295672893926</v>
       </c>
       <c r="V21" t="n">
-        <v>1418.041974869119</v>
+        <v>1595.90005034226</v>
       </c>
       <c r="W21" t="n">
-        <v>1176.726106102429</v>
+        <v>1354.58418157557</v>
       </c>
       <c r="X21" t="n">
-        <v>978.809117980224</v>
+        <v>1156.667193453364</v>
       </c>
       <c r="Y21" t="n">
-        <v>786.2877916298028</v>
+        <v>964.1458671029433</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>198.5339332671775</v>
+        <v>86.37232419784304</v>
       </c>
       <c r="C22" t="n">
-        <v>198.5339332671775</v>
+        <v>86.37232419784304</v>
       </c>
       <c r="D22" t="n">
-        <v>198.5339332671775</v>
+        <v>86.37232419784304</v>
       </c>
       <c r="E22" t="n">
-        <v>198.5339332671775</v>
+        <v>86.37232419784304</v>
       </c>
       <c r="F22" t="n">
-        <v>198.5339332671775</v>
+        <v>86.37232419784304</v>
       </c>
       <c r="G22" t="n">
-        <v>44.60423108645428</v>
+        <v>86.37232419784304</v>
       </c>
       <c r="H22" t="n">
-        <v>44.60423108645428</v>
+        <v>86.37232419784304</v>
       </c>
       <c r="I22" t="n">
-        <v>44.60423108645428</v>
+        <v>86.37232419784304</v>
       </c>
       <c r="J22" t="n">
-        <v>44.60423108645428</v>
+        <v>44.60423108645425</v>
       </c>
       <c r="K22" t="n">
         <v>107.6650148331516</v>
@@ -5932,28 +5932,28 @@
         <v>788.856992853599</v>
       </c>
       <c r="R22" t="n">
-        <v>788.856992853599</v>
+        <v>650.9667034978823</v>
       </c>
       <c r="S22" t="n">
-        <v>769.3733686008418</v>
+        <v>467.4938238206513</v>
       </c>
       <c r="T22" t="n">
-        <v>727.0176485907931</v>
+        <v>425.1381038106025</v>
       </c>
       <c r="U22" t="n">
-        <v>629.5594549711335</v>
+        <v>327.6799101909428</v>
       </c>
       <c r="V22" t="n">
-        <v>558.5420862404126</v>
+        <v>256.6625414602219</v>
       </c>
       <c r="W22" t="n">
-        <v>462.1036204686682</v>
+        <v>160.2240756884774</v>
       </c>
       <c r="X22" t="n">
-        <v>420.5690920749004</v>
+        <v>118.6895472947095</v>
       </c>
       <c r="Y22" t="n">
-        <v>198.5339332671775</v>
+        <v>86.37232419784304</v>
       </c>
     </row>
     <row r="23">
@@ -5966,13 +5966,13 @@
         <v>1212.433711137052</v>
       </c>
       <c r="C23" t="n">
-        <v>1020.217888180715</v>
+        <v>1020.217888180716</v>
       </c>
       <c r="D23" t="n">
-        <v>837.1118591187956</v>
+        <v>837.111859118796</v>
       </c>
       <c r="E23" t="n">
-        <v>632.0440749357588</v>
+        <v>632.044074935759</v>
       </c>
       <c r="F23" t="n">
         <v>407.6108199567857</v>
@@ -5987,25 +5987,25 @@
         <v>44.60423108645426</v>
       </c>
       <c r="J23" t="n">
-        <v>164.575219004934</v>
+        <v>44.60423108645426</v>
       </c>
       <c r="K23" t="n">
-        <v>476.6138485014426</v>
+        <v>111.7833655142938</v>
       </c>
       <c r="L23" t="n">
-        <v>476.6138485014426</v>
+        <v>548.8648846469251</v>
       </c>
       <c r="M23" t="n">
-        <v>969.1009134899872</v>
+        <v>1041.35194963547</v>
       </c>
       <c r="N23" t="n">
-        <v>1448.286105675183</v>
+        <v>1520.537141820665</v>
       </c>
       <c r="O23" t="n">
-        <v>1848.524105241671</v>
+        <v>1920.775141387154</v>
       </c>
       <c r="P23" t="n">
-        <v>2074.741768728586</v>
+        <v>2230.211554322713</v>
       </c>
       <c r="Q23" t="n">
         <v>2230.211554322713</v>
@@ -6032,7 +6032,7 @@
         <v>1620.58323465752</v>
       </c>
       <c r="Y23" t="n">
-        <v>1416.759314944214</v>
+        <v>1416.759314944215</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>626.8683488485419</v>
+        <v>755.2882884655385</v>
       </c>
       <c r="C24" t="n">
-        <v>465.1646760894967</v>
+        <v>593.5846157064932</v>
       </c>
       <c r="D24" t="n">
-        <v>326.3260390797087</v>
+        <v>454.7459786967053</v>
       </c>
       <c r="E24" t="n">
-        <v>179.2980291365799</v>
+        <v>307.7179687535765</v>
       </c>
       <c r="F24" t="n">
-        <v>44.60423108645426</v>
+        <v>173.0241707034509</v>
       </c>
       <c r="G24" t="n">
         <v>44.60423108645426</v>
@@ -6066,25 +6066,25 @@
         <v>44.60423108645426</v>
       </c>
       <c r="J24" t="n">
-        <v>44.60423108645426</v>
+        <v>133.4304364107841</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9289830114116</v>
+        <v>411.7551883357415</v>
       </c>
       <c r="L24" t="n">
-        <v>322.9289830114116</v>
+        <v>843.2406410663014</v>
       </c>
       <c r="M24" t="n">
-        <v>874.9063427062831</v>
+        <v>1209.838034888599</v>
       </c>
       <c r="N24" t="n">
-        <v>1406.213313486215</v>
+        <v>1209.838034888599</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.366677447447</v>
+        <v>1673.991398849831</v>
       </c>
       <c r="P24" t="n">
-        <v>2230.211554322713</v>
+        <v>2033.836275725097</v>
       </c>
       <c r="Q24" t="n">
         <v>2230.211554322713</v>
@@ -6093,25 +6093,25 @@
         <v>2189.585094418444</v>
       </c>
       <c r="S24" t="n">
-        <v>2042.516980779469</v>
+        <v>2180.773418466568</v>
       </c>
       <c r="T24" t="n">
-        <v>1864.912089798809</v>
+        <v>1993.332029415806</v>
       </c>
       <c r="U24" t="n">
-        <v>1646.437597420785</v>
+        <v>1774.857537037782</v>
       </c>
       <c r="V24" t="n">
-        <v>1418.041974869119</v>
+        <v>1546.461914486116</v>
       </c>
       <c r="W24" t="n">
-        <v>1176.726106102429</v>
+        <v>1305.146045719426</v>
       </c>
       <c r="X24" t="n">
-        <v>978.809117980224</v>
+        <v>1107.22905759722</v>
       </c>
       <c r="Y24" t="n">
-        <v>786.2877916298028</v>
+        <v>914.7077312467993</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>250.3615796223174</v>
+        <v>371.3760062179451</v>
       </c>
       <c r="C25" t="n">
-        <v>250.3615796223174</v>
+        <v>201.7600366796254</v>
       </c>
       <c r="D25" t="n">
-        <v>250.3615796223174</v>
+        <v>201.7600366796254</v>
       </c>
       <c r="E25" t="n">
-        <v>250.3615796223174</v>
+        <v>201.7600366796254</v>
       </c>
       <c r="F25" t="n">
-        <v>97.88092464809449</v>
+        <v>201.7600366796254</v>
       </c>
       <c r="G25" t="n">
-        <v>97.88092464809449</v>
+        <v>44.60423108645426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.88092464809449</v>
+        <v>44.60423108645426</v>
       </c>
       <c r="I25" t="n">
         <v>44.60423108645426</v>
@@ -6166,31 +6166,31 @@
         <v>788.856992853599</v>
       </c>
       <c r="Q25" t="n">
-        <v>788.856992853599</v>
+        <v>771.9811300935106</v>
       </c>
       <c r="R25" t="n">
-        <v>650.9667034978823</v>
+        <v>771.9811300935106</v>
       </c>
       <c r="S25" t="n">
-        <v>631.4830792451252</v>
+        <v>752.4975058407534</v>
       </c>
       <c r="T25" t="n">
-        <v>589.1273592350765</v>
+        <v>710.1417858307046</v>
       </c>
       <c r="U25" t="n">
-        <v>491.6691656154169</v>
+        <v>612.6835922110449</v>
       </c>
       <c r="V25" t="n">
-        <v>420.651796884696</v>
+        <v>541.6662234803239</v>
       </c>
       <c r="W25" t="n">
-        <v>324.2133311129516</v>
+        <v>445.2277577085794</v>
       </c>
       <c r="X25" t="n">
-        <v>282.6788027191838</v>
+        <v>403.6932293148116</v>
       </c>
       <c r="Y25" t="n">
-        <v>250.3615796223174</v>
+        <v>371.3760062179451</v>
       </c>
     </row>
     <row r="26">
@@ -6209,37 +6209,37 @@
         <v>1257.656683094068</v>
       </c>
       <c r="E26" t="n">
-        <v>965.7465136271642</v>
+        <v>965.7465136271639</v>
       </c>
       <c r="F26" t="n">
-        <v>654.470873364324</v>
+        <v>654.4708733643238</v>
       </c>
       <c r="G26" t="n">
-        <v>341.8191347352342</v>
+        <v>341.8191347352339</v>
       </c>
       <c r="H26" t="n">
-        <v>117.7795139262577</v>
+        <v>117.7795139262576</v>
       </c>
       <c r="I26" t="n">
         <v>70.07099553496323</v>
       </c>
       <c r="J26" t="n">
-        <v>290.8703104269352</v>
+        <v>265.1443918243722</v>
       </c>
       <c r="K26" t="n">
-        <v>703.737266896936</v>
+        <v>577.1830213208808</v>
       </c>
       <c r="L26" t="n">
-        <v>1241.64711300306</v>
+        <v>1115.092867427004</v>
       </c>
       <c r="M26" t="n">
-        <v>1834.962504965096</v>
+        <v>1708.408259389041</v>
       </c>
       <c r="N26" t="n">
-        <v>2414.976024123784</v>
+        <v>2288.421778547729</v>
       </c>
       <c r="O26" t="n">
-        <v>2890.316432061203</v>
+        <v>2789.48810508771</v>
       </c>
       <c r="P26" t="n">
         <v>3199.752844996762</v>
@@ -6254,22 +6254,22 @@
         <v>3432.337845852789</v>
       </c>
       <c r="T26" t="n">
-        <v>3313.378943272094</v>
+        <v>3313.378943272093</v>
       </c>
       <c r="U26" t="n">
-        <v>3161.415293212256</v>
+        <v>3161.415293212257</v>
       </c>
       <c r="V26" t="n">
         <v>2927.311569535187</v>
       </c>
       <c r="W26" t="n">
-        <v>2667.652189819777</v>
+        <v>2667.652189819778</v>
       </c>
       <c r="X26" t="n">
         <v>2388.49759976826</v>
       </c>
       <c r="Y26" t="n">
-        <v>2097.831294771087</v>
+        <v>2097.831294771088</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>70.07099553496323</v>
       </c>
       <c r="J27" t="n">
-        <v>70.07099553496323</v>
+        <v>158.8972008592931</v>
       </c>
       <c r="K27" t="n">
-        <v>348.3957474599206</v>
+        <v>437.2219527842504</v>
       </c>
       <c r="L27" t="n">
-        <v>779.8812001904805</v>
+        <v>868.7074055148103</v>
       </c>
       <c r="M27" t="n">
-        <v>1341.540886571465</v>
+        <v>1430.367091895795</v>
       </c>
       <c r="N27" t="n">
-        <v>1931.460936587664</v>
+        <v>1528.2776572616</v>
       </c>
       <c r="O27" t="n">
-        <v>2395.614300548896</v>
+        <v>1992.431021222832</v>
       </c>
       <c r="P27" t="n">
-        <v>2548.651176695715</v>
+        <v>2352.275898098098</v>
       </c>
       <c r="Q27" t="n">
         <v>2548.651176695715</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>439.2770538916603</v>
+        <v>439.2770538916606</v>
       </c>
       <c r="C28" t="n">
-        <v>372.53663478033</v>
+        <v>372.5366347803303</v>
       </c>
       <c r="D28" t="n">
-        <v>322.3402920350822</v>
+        <v>322.3402920350825</v>
       </c>
       <c r="E28" t="n">
-        <v>273.2068282233905</v>
+        <v>273.2068282233908</v>
       </c>
       <c r="F28" t="n">
-        <v>223.6017236761571</v>
+        <v>223.6017236761573</v>
       </c>
       <c r="G28" t="n">
-        <v>157.8162121113705</v>
+        <v>157.8162121113708</v>
       </c>
       <c r="H28" t="n">
         <v>103.6190767202313</v>
@@ -6385,13 +6385,13 @@
         <v>129.9624144499834</v>
       </c>
       <c r="K28" t="n">
-        <v>293.8515251701731</v>
+        <v>293.851525170173</v>
       </c>
       <c r="L28" t="n">
-        <v>532.9812328755048</v>
+        <v>532.9812328755046</v>
       </c>
       <c r="M28" t="n">
-        <v>791.5464215997143</v>
+        <v>791.5464215997142</v>
       </c>
       <c r="N28" t="n">
         <v>1049.595437779973</v>
@@ -6415,19 +6415,19 @@
         <v>1292.934578181145</v>
       </c>
       <c r="U28" t="n">
-        <v>1108.633999277618</v>
+        <v>1108.633999277619</v>
       </c>
       <c r="V28" t="n">
-        <v>950.7742452630303</v>
+        <v>950.7742452630307</v>
       </c>
       <c r="W28" t="n">
-        <v>767.4933942074189</v>
+        <v>767.4933942074192</v>
       </c>
       <c r="X28" t="n">
-        <v>639.1164805297841</v>
+        <v>639.1164805297846</v>
       </c>
       <c r="Y28" t="n">
-        <v>519.9568721490507</v>
+        <v>519.9568721490509</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1806.663305680058</v>
+        <v>1806.663305680057</v>
       </c>
       <c r="C29" t="n">
-        <v>1527.605097439855</v>
+        <v>1527.605097439854</v>
       </c>
       <c r="D29" t="n">
-        <v>1257.656683094068</v>
+        <v>1257.656683094067</v>
       </c>
       <c r="E29" t="n">
-        <v>965.7465136271639</v>
+        <v>965.7465136271635</v>
       </c>
       <c r="F29" t="n">
         <v>654.4708733643238</v>
       </c>
       <c r="G29" t="n">
-        <v>341.819134735234</v>
+        <v>341.8191347352339</v>
       </c>
       <c r="H29" t="n">
         <v>117.7795139262576</v>
@@ -6464,10 +6464,10 @@
         <v>290.8703104269353</v>
       </c>
       <c r="K29" t="n">
-        <v>602.9089399234439</v>
+        <v>703.7372668969361</v>
       </c>
       <c r="L29" t="n">
-        <v>1140.818786029567</v>
+        <v>1241.64711300306</v>
       </c>
       <c r="M29" t="n">
         <v>1734.134177991604</v>
@@ -6488,19 +6488,19 @@
         <v>3503.549776748161</v>
       </c>
       <c r="S29" t="n">
-        <v>3432.337845852789</v>
+        <v>3432.337845852788</v>
       </c>
       <c r="T29" t="n">
         <v>3313.378943272094</v>
       </c>
       <c r="U29" t="n">
-        <v>3161.415293212257</v>
+        <v>3161.415293212256</v>
       </c>
       <c r="V29" t="n">
-        <v>2927.311569535187</v>
+        <v>2927.311569535186</v>
       </c>
       <c r="W29" t="n">
-        <v>2667.652189819778</v>
+        <v>2667.652189819777</v>
       </c>
       <c r="X29" t="n">
         <v>2388.49759976826</v>
@@ -6531,7 +6531,7 @@
         <v>353.2073553893537</v>
       </c>
       <c r="G30" t="n">
-        <v>224.787415772357</v>
+        <v>224.7874157723571</v>
       </c>
       <c r="H30" t="n">
         <v>127.8296017931812</v>
@@ -6540,25 +6540,25 @@
         <v>70.07099553496322</v>
       </c>
       <c r="J30" t="n">
-        <v>70.07099553496322</v>
+        <v>158.897200859293</v>
       </c>
       <c r="K30" t="n">
-        <v>348.3957474599206</v>
+        <v>437.2219527842504</v>
       </c>
       <c r="L30" t="n">
-        <v>779.8812001904805</v>
+        <v>437.2219527842504</v>
       </c>
       <c r="M30" t="n">
-        <v>1341.540886571465</v>
+        <v>938.3576072454011</v>
       </c>
       <c r="N30" t="n">
-        <v>1931.460936587664</v>
+        <v>1528.2776572616</v>
       </c>
       <c r="O30" t="n">
-        <v>2395.614300548896</v>
+        <v>1992.431021222833</v>
       </c>
       <c r="P30" t="n">
-        <v>2548.651176695715</v>
+        <v>2352.275898098098</v>
       </c>
       <c r="Q30" t="n">
         <v>2548.651176695715</v>
@@ -6598,19 +6598,19 @@
         <v>439.2770538916602</v>
       </c>
       <c r="C31" t="n">
-        <v>372.5366347803299</v>
+        <v>372.53663478033</v>
       </c>
       <c r="D31" t="n">
         <v>322.3402920350821</v>
       </c>
       <c r="E31" t="n">
-        <v>273.2068282233904</v>
+        <v>273.2068282233905</v>
       </c>
       <c r="F31" t="n">
-        <v>223.601723676157</v>
+        <v>223.6017236761571</v>
       </c>
       <c r="G31" t="n">
-        <v>157.8162121113704</v>
+        <v>157.8162121113705</v>
       </c>
       <c r="H31" t="n">
         <v>103.6190767202312</v>
@@ -6619,7 +6619,7 @@
         <v>70.07099553496322</v>
       </c>
       <c r="J31" t="n">
-        <v>129.9624144499834</v>
+        <v>129.9624144499835</v>
       </c>
       <c r="K31" t="n">
         <v>293.8515251701732</v>
@@ -6628,13 +6628,13 @@
         <v>532.9812328755049</v>
       </c>
       <c r="M31" t="n">
-        <v>791.5464215997146</v>
+        <v>791.5464215997144</v>
       </c>
       <c r="N31" t="n">
         <v>1049.595437779973</v>
       </c>
       <c r="O31" t="n">
-        <v>1284.723964820354</v>
+        <v>1284.723964820355</v>
       </c>
       <c r="P31" t="n">
         <v>1479.185138058082</v>
@@ -6646,7 +6646,7 @@
         <v>1528.458693011685</v>
       </c>
       <c r="S31" t="n">
-        <v>1422.13268347506</v>
+        <v>1422.132683475061</v>
       </c>
       <c r="T31" t="n">
         <v>1292.934578181145</v>
@@ -6655,16 +6655,16 @@
         <v>1108.633999277618</v>
       </c>
       <c r="V31" t="n">
-        <v>950.77424526303</v>
+        <v>950.7742452630305</v>
       </c>
       <c r="W31" t="n">
-        <v>767.4933942074186</v>
+        <v>767.4933942074191</v>
       </c>
       <c r="X31" t="n">
-        <v>639.1164805297839</v>
+        <v>639.1164805297843</v>
       </c>
       <c r="Y31" t="n">
-        <v>519.9568721490505</v>
+        <v>519.9568721490506</v>
       </c>
     </row>
     <row r="32">
@@ -6677,58 +6677,58 @@
         <v>1806.663305680058</v>
       </c>
       <c r="C32" t="n">
-        <v>1527.605097439854</v>
+        <v>1527.605097439855</v>
       </c>
       <c r="D32" t="n">
-        <v>1257.656683094067</v>
+        <v>1257.656683094068</v>
       </c>
       <c r="E32" t="n">
-        <v>965.7465136271637</v>
+        <v>965.7465136271646</v>
       </c>
       <c r="F32" t="n">
-        <v>654.4708733643234</v>
+        <v>654.4708733643247</v>
       </c>
       <c r="G32" t="n">
-        <v>341.8191347352335</v>
+        <v>341.8191347352337</v>
       </c>
       <c r="H32" t="n">
         <v>117.7795139262576</v>
       </c>
       <c r="I32" t="n">
-        <v>70.0709955349632</v>
+        <v>70.07099553496322</v>
       </c>
       <c r="J32" t="n">
-        <v>265.1443918243706</v>
+        <v>290.8703104269354</v>
       </c>
       <c r="K32" t="n">
-        <v>678.0113482943715</v>
+        <v>703.7372668969363</v>
       </c>
       <c r="L32" t="n">
-        <v>1215.921194400495</v>
+        <v>1215.921194400494</v>
       </c>
       <c r="M32" t="n">
-        <v>1708.40825938904</v>
+        <v>1809.236586362531</v>
       </c>
       <c r="N32" t="n">
-        <v>2288.421778547728</v>
+        <v>2389.25010552122</v>
       </c>
       <c r="O32" t="n">
-        <v>2789.488105087708</v>
+        <v>2890.316432061201</v>
       </c>
       <c r="P32" t="n">
         <v>3199.75284499676</v>
       </c>
       <c r="Q32" t="n">
-        <v>3456.050957564379</v>
+        <v>3456.05095756438</v>
       </c>
       <c r="R32" t="n">
-        <v>3503.54977674816</v>
+        <v>3503.549776748161</v>
       </c>
       <c r="S32" t="n">
-        <v>3432.337845852787</v>
+        <v>3432.337845852788</v>
       </c>
       <c r="T32" t="n">
-        <v>3313.378943272093</v>
+        <v>3313.378943272094</v>
       </c>
       <c r="U32" t="n">
         <v>3161.415293212256</v>
@@ -6737,13 +6737,13 @@
         <v>2927.311569535187</v>
       </c>
       <c r="W32" t="n">
-        <v>2667.652189819777</v>
+        <v>2667.652189819778</v>
       </c>
       <c r="X32" t="n">
         <v>2388.49759976826</v>
       </c>
       <c r="Y32" t="n">
-        <v>2097.831294771087</v>
+        <v>2097.831294771088</v>
       </c>
     </row>
     <row r="33">
@@ -6768,34 +6768,34 @@
         <v>353.2073553893537</v>
       </c>
       <c r="G33" t="n">
-        <v>224.787415772357</v>
+        <v>224.7874157723571</v>
       </c>
       <c r="H33" t="n">
         <v>127.8296017931812</v>
       </c>
       <c r="I33" t="n">
-        <v>70.0709955349632</v>
+        <v>70.07099553496322</v>
       </c>
       <c r="J33" t="n">
-        <v>70.0709955349632</v>
+        <v>158.897200859293</v>
       </c>
       <c r="K33" t="n">
-        <v>348.3957474599206</v>
+        <v>437.2219527842504</v>
       </c>
       <c r="L33" t="n">
-        <v>779.8812001904805</v>
+        <v>868.7074055148103</v>
       </c>
       <c r="M33" t="n">
-        <v>1341.540886571465</v>
+        <v>1430.367091895795</v>
       </c>
       <c r="N33" t="n">
-        <v>1931.460936587664</v>
+        <v>1528.2776572616</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.806299820449</v>
+        <v>1992.431021222833</v>
       </c>
       <c r="P33" t="n">
-        <v>2548.651176695715</v>
+        <v>2352.275898098098</v>
       </c>
       <c r="Q33" t="n">
         <v>2548.651176695715</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>439.2770538916602</v>
+        <v>439.2770538916595</v>
       </c>
       <c r="C34" t="n">
-        <v>372.53663478033</v>
+        <v>372.5366347803293</v>
       </c>
       <c r="D34" t="n">
-        <v>322.3402920350821</v>
+        <v>322.3402920350816</v>
       </c>
       <c r="E34" t="n">
-        <v>273.2068282233905</v>
+        <v>273.2068282233901</v>
       </c>
       <c r="F34" t="n">
-        <v>223.601723676157</v>
+        <v>223.6017236761567</v>
       </c>
       <c r="G34" t="n">
-        <v>157.8162121113704</v>
+        <v>157.8162121113702</v>
       </c>
       <c r="H34" t="n">
         <v>103.6190767202312</v>
       </c>
       <c r="I34" t="n">
-        <v>70.0709955349632</v>
+        <v>70.07099553496322</v>
       </c>
       <c r="J34" t="n">
-        <v>129.9624144499832</v>
+        <v>129.9624144499835</v>
       </c>
       <c r="K34" t="n">
-        <v>293.851525170173</v>
+        <v>293.8515251701708</v>
       </c>
       <c r="L34" t="n">
-        <v>532.9812328755047</v>
+        <v>532.9812328755027</v>
       </c>
       <c r="M34" t="n">
-        <v>791.5464215997149</v>
+        <v>791.5464215997123</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.595437779973</v>
+        <v>1049.595437779971</v>
       </c>
       <c r="O34" t="n">
-        <v>1284.723964820355</v>
+        <v>1284.723964820353</v>
       </c>
       <c r="P34" t="n">
-        <v>1479.185138058083</v>
+        <v>1479.18513805808</v>
       </c>
       <c r="Q34" t="n">
-        <v>1563.473431940412</v>
+        <v>1563.47343194041</v>
       </c>
       <c r="R34" t="n">
-        <v>1528.458693011685</v>
+        <v>1528.458693011683</v>
       </c>
       <c r="S34" t="n">
-        <v>1422.132683475061</v>
+        <v>1422.132683475059</v>
       </c>
       <c r="T34" t="n">
-        <v>1292.934578181145</v>
+        <v>1292.934578181143</v>
       </c>
       <c r="U34" t="n">
-        <v>1108.633999277619</v>
+        <v>1108.633999277617</v>
       </c>
       <c r="V34" t="n">
-        <v>950.7742452630307</v>
+        <v>950.7742452630291</v>
       </c>
       <c r="W34" t="n">
-        <v>767.4933942074192</v>
+        <v>767.4933942074177</v>
       </c>
       <c r="X34" t="n">
-        <v>639.116480529784</v>
+        <v>639.1164805297831</v>
       </c>
       <c r="Y34" t="n">
-        <v>519.9568721490506</v>
+        <v>519.9568721490498</v>
       </c>
     </row>
     <row r="35">
@@ -6914,25 +6914,25 @@
         <v>1452.736679523714</v>
       </c>
       <c r="C35" t="n">
-        <v>1222.240090640965</v>
+        <v>1222.240090640966</v>
       </c>
       <c r="D35" t="n">
         <v>1000.853295652634</v>
       </c>
       <c r="E35" t="n">
-        <v>757.5047455431848</v>
+        <v>757.504745543185</v>
       </c>
       <c r="F35" t="n">
-        <v>494.7907246377995</v>
+        <v>494.7907246377997</v>
       </c>
       <c r="G35" t="n">
         <v>230.7006053661649</v>
       </c>
       <c r="H35" t="n">
-        <v>55.22260391464356</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="I35" t="n">
-        <v>55.22260391464356</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="J35" t="n">
         <v>175.1935918331233</v>
@@ -6947,7 +6947,7 @@
         <v>1416.800805450808</v>
       </c>
       <c r="N35" t="n">
-        <v>1895.985997636004</v>
+        <v>1895.985997636003</v>
       </c>
       <c r="O35" t="n">
         <v>2296.223997202492</v>
@@ -6965,7 +6965,7 @@
         <v>2738.47988419426</v>
       </c>
       <c r="T35" t="n">
-        <v>2668.082600971021</v>
+        <v>2668.08260097102</v>
       </c>
       <c r="U35" t="n">
         <v>2564.680570268637</v>
@@ -6977,7 +6977,7 @@
         <v>2168.040705591069</v>
       </c>
       <c r="X35" t="n">
-        <v>1937.447734897006</v>
+        <v>1937.447734897007</v>
       </c>
       <c r="Y35" t="n">
         <v>1695.343049257289</v>
@@ -7011,28 +7011,28 @@
         <v>112.9812101728615</v>
       </c>
       <c r="I36" t="n">
-        <v>55.22260391464356</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="J36" t="n">
-        <v>126.739355111154</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="K36" t="n">
-        <v>126.739355111154</v>
+        <v>333.5473558396009</v>
       </c>
       <c r="L36" t="n">
-        <v>558.2248078417139</v>
+        <v>765.0328085701608</v>
       </c>
       <c r="M36" t="n">
-        <v>1119.884494222698</v>
+        <v>1326.692494951145</v>
       </c>
       <c r="N36" t="n">
-        <v>1709.804544238897</v>
+        <v>1513.429265641281</v>
       </c>
       <c r="O36" t="n">
-        <v>2173.95790820013</v>
+        <v>1977.582629602513</v>
       </c>
       <c r="P36" t="n">
-        <v>2533.802785075395</v>
+        <v>2337.427506477778</v>
       </c>
       <c r="Q36" t="n">
         <v>2533.802785075395</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.51086494134321</v>
+        <v>99.51086494134302</v>
       </c>
       <c r="C37" t="n">
-        <v>81.33206518746785</v>
+        <v>81.33206518746768</v>
       </c>
       <c r="D37" t="n">
-        <v>79.69734179967493</v>
+        <v>79.69734179967479</v>
       </c>
       <c r="E37" t="n">
-        <v>79.12549734543812</v>
+        <v>79.12549734543801</v>
       </c>
       <c r="F37" t="n">
-        <v>78.08201215565958</v>
+        <v>78.0820121556595</v>
       </c>
       <c r="G37" t="n">
-        <v>60.85811994832788</v>
+        <v>60.85811994832784</v>
       </c>
       <c r="H37" t="n">
-        <v>55.22260391464356</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="I37" t="n">
-        <v>55.94678743458395</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="J37" t="n">
-        <v>55.94678743458395</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="K37" t="n">
-        <v>119.0075711812813</v>
+        <v>118.2833876613409</v>
       </c>
       <c r="L37" t="n">
-        <v>257.3089519131207</v>
+        <v>256.5847683931802</v>
       </c>
       <c r="M37" t="n">
-        <v>415.0458136638379</v>
+        <v>414.3216301438974</v>
       </c>
       <c r="N37" t="n">
-        <v>572.2665028706037</v>
+        <v>571.5423193506633</v>
       </c>
       <c r="O37" t="n">
-        <v>706.5667029374933</v>
+        <v>705.8425194175529</v>
       </c>
       <c r="P37" t="n">
-        <v>800.1995492017286</v>
+        <v>799.4753656817882</v>
       </c>
       <c r="Q37" t="n">
-        <v>800.1995492017286</v>
+        <v>799.4753656817882</v>
       </c>
       <c r="R37" t="n">
-        <v>800.1995492017286</v>
+        <v>800.1995492017281</v>
       </c>
       <c r="S37" t="n">
-        <v>742.4351590225593</v>
+        <v>742.4351590225589</v>
       </c>
       <c r="T37" t="n">
-        <v>661.7986730860985</v>
+        <v>661.7986730860981</v>
       </c>
       <c r="U37" t="n">
-        <v>526.0597135400267</v>
+        <v>526.0597135400265</v>
       </c>
       <c r="V37" t="n">
-        <v>416.7615788828937</v>
+        <v>416.7615788828934</v>
       </c>
       <c r="W37" t="n">
-        <v>282.0423471847371</v>
+        <v>282.0423471847369</v>
       </c>
       <c r="X37" t="n">
-        <v>202.2270528645573</v>
+        <v>202.227052864557</v>
       </c>
       <c r="Y37" t="n">
-        <v>131.6290638412787</v>
+        <v>131.6290638412785</v>
       </c>
     </row>
     <row r="38">
@@ -7151,73 +7151,73 @@
         <v>1452.736679523714</v>
       </c>
       <c r="C38" t="n">
-        <v>1222.240090640965</v>
+        <v>1222.240090640966</v>
       </c>
       <c r="D38" t="n">
-        <v>1000.853295652633</v>
+        <v>1000.853295652634</v>
       </c>
       <c r="E38" t="n">
-        <v>757.5047455431848</v>
+        <v>757.5047455431853</v>
       </c>
       <c r="F38" t="n">
-        <v>494.7907246377996</v>
+        <v>494.7907246377999</v>
       </c>
       <c r="G38" t="n">
-        <v>230.7006053661647</v>
+        <v>230.7006053661649</v>
       </c>
       <c r="H38" t="n">
-        <v>55.22260391464354</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="I38" t="n">
-        <v>55.22260391464354</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="J38" t="n">
         <v>175.1935918331233</v>
       </c>
       <c r="K38" t="n">
-        <v>487.2322213296304</v>
+        <v>487.2322213296318</v>
       </c>
       <c r="L38" t="n">
-        <v>924.3137404622618</v>
+        <v>924.3137404622628</v>
       </c>
       <c r="M38" t="n">
-        <v>1416.800805450806</v>
+        <v>1416.800805450807</v>
       </c>
       <c r="N38" t="n">
-        <v>1895.985997636002</v>
+        <v>1895.985997636003</v>
       </c>
       <c r="O38" t="n">
-        <v>2296.22399720249</v>
+        <v>2296.223997202491</v>
       </c>
       <c r="P38" t="n">
-        <v>2605.66041013805</v>
+        <v>2605.660410138051</v>
       </c>
       <c r="Q38" t="n">
-        <v>2761.130195732177</v>
+        <v>2761.130195732178</v>
       </c>
       <c r="R38" t="n">
-        <v>2761.130195732177</v>
+        <v>2761.130195732178</v>
       </c>
       <c r="S38" t="n">
-        <v>2738.479884194259</v>
+        <v>2738.47988419426</v>
       </c>
       <c r="T38" t="n">
-        <v>2668.082600971019</v>
+        <v>2668.08260097102</v>
       </c>
       <c r="U38" t="n">
-        <v>2564.680570268637</v>
+        <v>2564.680570268638</v>
       </c>
       <c r="V38" t="n">
-        <v>2379.138465949022</v>
+        <v>2379.138465949024</v>
       </c>
       <c r="W38" t="n">
-        <v>2168.040705591068</v>
+        <v>2168.040705591069</v>
       </c>
       <c r="X38" t="n">
-        <v>1937.447734897006</v>
+        <v>1937.447734897007</v>
       </c>
       <c r="Y38" t="n">
-        <v>1695.343049257288</v>
+        <v>1695.343049257289</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>920.6230815311216</v>
+        <v>920.6230815311218</v>
       </c>
       <c r="C39" t="n">
-        <v>758.9194087720763</v>
+        <v>758.9194087720765</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0807717622884</v>
+        <v>620.0807717622886</v>
       </c>
       <c r="E39" t="n">
-        <v>473.0527618191596</v>
+        <v>473.0527618191597</v>
       </c>
       <c r="F39" t="n">
-        <v>338.358963769034</v>
+        <v>338.3589637690341</v>
       </c>
       <c r="G39" t="n">
-        <v>209.9390241520373</v>
+        <v>209.9390241520374</v>
       </c>
       <c r="H39" t="n">
         <v>112.9812101728615</v>
       </c>
       <c r="I39" t="n">
-        <v>55.22260391464354</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="J39" t="n">
         <v>144.0488092389734</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.51086494134213</v>
+        <v>99.51086494134302</v>
       </c>
       <c r="C40" t="n">
-        <v>81.33206518746695</v>
+        <v>81.33206518746768</v>
       </c>
       <c r="D40" t="n">
-        <v>79.69734179967421</v>
+        <v>79.69734179967479</v>
       </c>
       <c r="E40" t="n">
-        <v>79.12549734543757</v>
+        <v>79.12549734543801</v>
       </c>
       <c r="F40" t="n">
-        <v>78.0820121556592</v>
+        <v>78.0820121556595</v>
       </c>
       <c r="G40" t="n">
-        <v>60.85811994832768</v>
+        <v>60.85811994832784</v>
       </c>
       <c r="H40" t="n">
-        <v>55.22260391464354</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="I40" t="n">
-        <v>55.22260391464354</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="J40" t="n">
-        <v>55.22260391464354</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="K40" t="n">
         <v>118.2833876613409</v>
@@ -7339,7 +7339,7 @@
         <v>256.5847683931802</v>
       </c>
       <c r="M40" t="n">
-        <v>414.3216301438975</v>
+        <v>414.3216301438974</v>
       </c>
       <c r="N40" t="n">
         <v>571.5423193506633</v>
@@ -7354,28 +7354,28 @@
         <v>799.4753656817882</v>
       </c>
       <c r="R40" t="n">
-        <v>800.1995492017261</v>
+        <v>800.1995492017281</v>
       </c>
       <c r="S40" t="n">
-        <v>742.4351590225569</v>
+        <v>742.4351590225589</v>
       </c>
       <c r="T40" t="n">
-        <v>661.7986730860963</v>
+        <v>661.7986730860981</v>
       </c>
       <c r="U40" t="n">
-        <v>526.0597135400247</v>
+        <v>526.0597135400265</v>
       </c>
       <c r="V40" t="n">
-        <v>416.7615788828919</v>
+        <v>416.7615788828934</v>
       </c>
       <c r="W40" t="n">
-        <v>282.0423471847355</v>
+        <v>282.0423471847369</v>
       </c>
       <c r="X40" t="n">
-        <v>202.2270528645558</v>
+        <v>202.227052864557</v>
       </c>
       <c r="Y40" t="n">
-        <v>131.6290638412775</v>
+        <v>131.6290638412785</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1452.736679523714</v>
+        <v>1452.736679523715</v>
       </c>
       <c r="C41" t="n">
-        <v>1222.240090640966</v>
+        <v>1222.240090640967</v>
       </c>
       <c r="D41" t="n">
-        <v>1000.853295652634</v>
+        <v>1000.853295652635</v>
       </c>
       <c r="E41" t="n">
-        <v>757.5047455431854</v>
+        <v>757.5047455431859</v>
       </c>
       <c r="F41" t="n">
-        <v>494.7907246378003</v>
+        <v>494.7907246378008</v>
       </c>
       <c r="G41" t="n">
-        <v>230.7006053661647</v>
+        <v>230.7006053661648</v>
       </c>
       <c r="H41" t="n">
-        <v>55.22260391464354</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="I41" t="n">
-        <v>55.22260391464354</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="J41" t="n">
-        <v>175.1935918331218</v>
+        <v>175.1935918331233</v>
       </c>
       <c r="K41" t="n">
-        <v>487.2322213296304</v>
+        <v>487.2322213296318</v>
       </c>
       <c r="L41" t="n">
-        <v>924.3137404622618</v>
+        <v>924.3137404622628</v>
       </c>
       <c r="M41" t="n">
-        <v>1416.800805450806</v>
+        <v>1416.800805450807</v>
       </c>
       <c r="N41" t="n">
-        <v>1895.985997636002</v>
+        <v>1895.985997636003</v>
       </c>
       <c r="O41" t="n">
-        <v>2296.22399720249</v>
+        <v>2296.223997202491</v>
       </c>
       <c r="P41" t="n">
-        <v>2605.66041013805</v>
+        <v>2605.660410138051</v>
       </c>
       <c r="Q41" t="n">
-        <v>2761.130195732177</v>
+        <v>2761.130195732178</v>
       </c>
       <c r="R41" t="n">
-        <v>2761.130195732177</v>
+        <v>2761.130195732178</v>
       </c>
       <c r="S41" t="n">
-        <v>2738.479884194259</v>
+        <v>2738.47988419426</v>
       </c>
       <c r="T41" t="n">
         <v>2668.08260097102</v>
       </c>
       <c r="U41" t="n">
-        <v>2564.680570268637</v>
+        <v>2564.680570268638</v>
       </c>
       <c r="V41" t="n">
-        <v>2379.138465949023</v>
+        <v>2379.138465949024</v>
       </c>
       <c r="W41" t="n">
-        <v>2168.040705591068</v>
+        <v>2168.040705591069</v>
       </c>
       <c r="X41" t="n">
-        <v>1937.447734897006</v>
+        <v>1937.447734897007</v>
       </c>
       <c r="Y41" t="n">
-        <v>1695.343049257289</v>
+        <v>1695.34304925729</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>920.6230815311216</v>
+        <v>920.6230815311218</v>
       </c>
       <c r="C42" t="n">
-        <v>758.9194087720763</v>
+        <v>758.9194087720765</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0807717622884</v>
+        <v>620.0807717622886</v>
       </c>
       <c r="E42" t="n">
-        <v>473.0527618191596</v>
+        <v>473.0527618191597</v>
       </c>
       <c r="F42" t="n">
-        <v>338.358963769034</v>
+        <v>338.3589637690341</v>
       </c>
       <c r="G42" t="n">
-        <v>209.9390241520373</v>
+        <v>209.9390241520374</v>
       </c>
       <c r="H42" t="n">
         <v>112.9812101728615</v>
       </c>
       <c r="I42" t="n">
-        <v>55.22260391464354</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="J42" t="n">
-        <v>55.22260391464354</v>
+        <v>144.0488092389734</v>
       </c>
       <c r="K42" t="n">
-        <v>333.5473558396009</v>
+        <v>422.3735611639307</v>
       </c>
       <c r="L42" t="n">
-        <v>361.8495292440972</v>
+        <v>853.8590138944905</v>
       </c>
       <c r="M42" t="n">
-        <v>923.5092156250814</v>
+        <v>1415.518700275475</v>
       </c>
       <c r="N42" t="n">
         <v>1513.429265641281</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.51086494134213</v>
+        <v>99.51086494134249</v>
       </c>
       <c r="C43" t="n">
-        <v>81.33206518746695</v>
+        <v>81.33206518746725</v>
       </c>
       <c r="D43" t="n">
-        <v>79.69734179967421</v>
+        <v>79.69734179967445</v>
       </c>
       <c r="E43" t="n">
-        <v>79.12549734543757</v>
+        <v>79.12549734543775</v>
       </c>
       <c r="F43" t="n">
-        <v>78.0820121556592</v>
+        <v>78.08201215565933</v>
       </c>
       <c r="G43" t="n">
-        <v>60.85811994832768</v>
+        <v>60.85811994832775</v>
       </c>
       <c r="H43" t="n">
-        <v>55.22260391464354</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="I43" t="n">
-        <v>55.22260391464354</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="J43" t="n">
-        <v>55.22260391464354</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="K43" t="n">
         <v>118.2833876613409</v>
@@ -7576,7 +7576,7 @@
         <v>256.5847683931802</v>
       </c>
       <c r="M43" t="n">
-        <v>414.3216301438975</v>
+        <v>414.3216301438974</v>
       </c>
       <c r="N43" t="n">
         <v>571.5423193506633</v>
@@ -7591,28 +7591,28 @@
         <v>799.4753656817882</v>
       </c>
       <c r="R43" t="n">
-        <v>800.1995492017261</v>
+        <v>800.199549201727</v>
       </c>
       <c r="S43" t="n">
-        <v>742.4351590225569</v>
+        <v>742.4351590225579</v>
       </c>
       <c r="T43" t="n">
-        <v>661.7986730860963</v>
+        <v>661.7986730860971</v>
       </c>
       <c r="U43" t="n">
-        <v>526.0597135400247</v>
+        <v>526.0597135400254</v>
       </c>
       <c r="V43" t="n">
-        <v>416.7615788828919</v>
+        <v>416.7615788828925</v>
       </c>
       <c r="W43" t="n">
-        <v>282.0423471847355</v>
+        <v>282.0423471847361</v>
       </c>
       <c r="X43" t="n">
-        <v>202.2270528645558</v>
+        <v>202.2270528645563</v>
       </c>
       <c r="Y43" t="n">
-        <v>131.6290638412775</v>
+        <v>131.6290638412779</v>
       </c>
     </row>
     <row r="44">
@@ -7634,25 +7634,25 @@
         <v>757.504745543185</v>
       </c>
       <c r="F44" t="n">
-        <v>494.7907246378002</v>
+        <v>494.7907246377997</v>
       </c>
       <c r="G44" t="n">
         <v>230.7006053661649</v>
       </c>
       <c r="H44" t="n">
-        <v>55.22260391464356</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="I44" t="n">
-        <v>55.22260391464356</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="J44" t="n">
         <v>175.1935918331233</v>
       </c>
       <c r="K44" t="n">
-        <v>487.2322213296318</v>
+        <v>487.2322213296317</v>
       </c>
       <c r="L44" t="n">
-        <v>924.3137404622631</v>
+        <v>924.313740462263</v>
       </c>
       <c r="M44" t="n">
         <v>1416.800805450808</v>
@@ -7722,7 +7722,7 @@
         <v>112.9812101728615</v>
       </c>
       <c r="I45" t="n">
-        <v>55.22260391464356</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="J45" t="n">
         <v>144.0488092389734</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.51086494134304</v>
+        <v>99.51086494134302</v>
       </c>
       <c r="C46" t="n">
-        <v>81.33206518746771</v>
+        <v>81.33206518746768</v>
       </c>
       <c r="D46" t="n">
-        <v>79.69734179967482</v>
+        <v>79.69734179967479</v>
       </c>
       <c r="E46" t="n">
-        <v>79.12549734543803</v>
+        <v>79.12549734543801</v>
       </c>
       <c r="F46" t="n">
-        <v>78.08201215565953</v>
+        <v>78.0820121556595</v>
       </c>
       <c r="G46" t="n">
-        <v>60.85811994832785</v>
+        <v>60.85811994832784</v>
       </c>
       <c r="H46" t="n">
-        <v>55.22260391464356</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="I46" t="n">
-        <v>55.22260391464356</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="J46" t="n">
-        <v>55.22260391464356</v>
+        <v>55.22260391464355</v>
       </c>
       <c r="K46" t="n">
         <v>118.2833876613409</v>
       </c>
       <c r="L46" t="n">
-        <v>256.5847683931803</v>
+        <v>256.5847683931802</v>
       </c>
       <c r="M46" t="n">
-        <v>414.3216301438976</v>
+        <v>414.3216301438974</v>
       </c>
       <c r="N46" t="n">
         <v>571.5423193506633</v>
@@ -8456,22 +8456,22 @@
         <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631151</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
         <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722306</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801219</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229907</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8538,16 +8538,16 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>115.4839025616403</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>106.7151410677088</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111116</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241438</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -8611,16 +8611,16 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>104.8232722635605</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L10" t="n">
-        <v>109.5937994785066</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M10" t="n">
-        <v>112.8771994574296</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N10" t="n">
-        <v>103.7445048780038</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
         <v>112.4959374921223</v>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>191.7314546805328</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>542.9595789155856</v>
+        <v>101.4630949432307</v>
       </c>
       <c r="M11" t="n">
-        <v>86.90591173407152</v>
+        <v>500.3082506632629</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>74.19490622098618</v>
       </c>
       <c r="K12" t="n">
         <v>62.66869506083969</v>
@@ -8775,19 +8775,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>330.3260558740053</v>
+        <v>585.1703019366097</v>
       </c>
       <c r="N12" t="n">
-        <v>584.8191368270966</v>
+        <v>584.8191368270964</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>50.52192562053914</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.741606786284</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.8255997236959</v>
+        <v>135.766256846277</v>
       </c>
       <c r="K14" t="n">
-        <v>106.198501497556</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>332.5942869107699</v>
+        <v>101.4630949432308</v>
       </c>
       <c r="M14" t="n">
         <v>584.3675935406823</v>
@@ -9003,19 +9003,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>74.19490622098618</v>
+        <v>74.19490622098621</v>
       </c>
       <c r="K15" t="n">
-        <v>62.66869506083969</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>221.6906283252307</v>
+        <v>595.6364549092294</v>
       </c>
       <c r="N15" t="n">
-        <v>584.8191368270966</v>
+        <v>27.26624824641837</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>175.5714229977706</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236959</v>
+        <v>98.64278364442346</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9170,10 +9170,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>584.3675935406823</v>
+        <v>179.9945827701804</v>
       </c>
       <c r="N17" t="n">
-        <v>200.0353623546204</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
@@ -9182,7 +9182,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>118.9693003890613</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,19 +9240,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>74.19490622098618</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>322.925627394191</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>46.24855724746674</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>595.6364549092294</v>
+        <v>408.3839641288507</v>
       </c>
       <c r="N18" t="n">
-        <v>584.8191368270966</v>
+        <v>27.2662482464183</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.741606786284</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>178.2952195256358</v>
+        <v>98.64278364442346</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
-        <v>542.9595789155856</v>
+        <v>138.5865681450838</v>
       </c>
       <c r="M20" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
-        <v>84.52555508386654</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O20" t="n">
         <v>495.0402356415689</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>74.19490622098618</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9486,19 +9486,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>595.6364549092297</v>
+        <v>595.6364549092293</v>
       </c>
       <c r="N21" t="n">
-        <v>584.8191368270967</v>
+        <v>584.8191368270964</v>
       </c>
       <c r="O21" t="n">
-        <v>130.6953093100716</v>
+        <v>43.17923328072578</v>
       </c>
       <c r="P21" t="n">
-        <v>50.52192562053914</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>86.86031619611487</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>98.64278364442346</v>
       </c>
       <c r="K23" t="n">
-        <v>421.3890363425141</v>
+        <v>174.0562130408283</v>
       </c>
       <c r="L23" t="n">
-        <v>101.4630949432307</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
         <v>584.3675935406823</v>
@@ -9653,10 +9653,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>334.2789777455085</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.0094878578761</v>
+        <v>118.9693003890613</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,19 +9714,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>74.19490622098618</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>46.24855724746674</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>595.6364549092294</v>
+        <v>408.3839641288516</v>
       </c>
       <c r="N24" t="n">
-        <v>563.9399561049353</v>
+        <v>27.2662482464183</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>74.741606786284</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>74.19490622098621</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9963,16 +9963,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>126.1658092219794</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>205.1046287991437</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>74.74160678628404</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,16 +10188,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>74.19490622098618</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>46.24855724746678</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>544.2811970973904</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10206,10 +10206,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>205.1046287991437</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>74.741606786284</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>74.19490622098618</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10437,16 +10437,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>126.1658092219797</v>
       </c>
       <c r="O33" t="n">
-        <v>303.1240446269733</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>74.741606786284</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>146.434048843724</v>
+        <v>74.19490622098621</v>
       </c>
       <c r="K36" t="n">
-        <v>62.66869506083969</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>215.8892489435253</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>74.741606786284</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10823,10 +10823,10 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>421.3890363425127</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>542.9595789155856</v>
+        <v>542.9595789155853</v>
       </c>
       <c r="M38" t="n">
         <v>584.3675935406823</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>126.1658092219799</v>
+        <v>126.1658092219801</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236945</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>542.9595789155856</v>
+        <v>542.9595789155853</v>
       </c>
       <c r="M41" t="n">
         <v>584.3675935406823</v>
@@ -11136,19 +11136,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>74.19490622098618</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>74.83661119140243</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>126.1658092219801</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>126.1658092219799</v>
+        <v>126.1658092219801</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23030,10 +23030,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.0096787829309</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035342</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>133.3424789196592</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>267.2489302023291</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>308.1628838602119</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>250.6924022511965</v>
+        <v>309.5252212427989</v>
       </c>
       <c r="H11" t="n">
-        <v>221.7992246008866</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.23143320738161</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>117.7693135548875</v>
       </c>
       <c r="U11" t="n">
-        <v>150.4440135592396</v>
+        <v>150.4440135592395</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>257.0627859182555</v>
+        <v>257.0627859182554</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>3.376499080331996e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>288.2563092001194</v>
       </c>
       <c r="C14" t="n">
-        <v>276.2676261578011</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>267.2489302023291</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>288.9910677722346</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>52.60670111924591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>150.4440135592395</v>
+        <v>124.719536355558</v>
       </c>
       <c r="V14" t="n">
-        <v>231.7626864402985</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>257.0627859182554</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>276.363044151002</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2.813749233609997e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -26314,16 +26314,16 @@
         <v>268056.8210275565</v>
       </c>
       <c r="C2" t="n">
-        <v>268056.8210275565</v>
+        <v>268056.8210275564</v>
       </c>
       <c r="D2" t="n">
         <v>268056.8210275566</v>
       </c>
       <c r="E2" t="n">
-        <v>234250.379341919</v>
+        <v>234250.3793419189</v>
       </c>
       <c r="F2" t="n">
-        <v>234250.3793419191</v>
+        <v>234250.3793419189</v>
       </c>
       <c r="G2" t="n">
         <v>268668.4211729637</v>
@@ -26332,28 +26332,28 @@
         <v>268668.4211729639</v>
       </c>
       <c r="I2" t="n">
-        <v>268668.4211729639</v>
+        <v>268668.4211729641</v>
       </c>
       <c r="J2" t="n">
-        <v>268668.4211729636</v>
+        <v>268668.4211729637</v>
       </c>
       <c r="K2" t="n">
         <v>268668.4211729637</v>
       </c>
       <c r="L2" t="n">
-        <v>268668.4211729638</v>
+        <v>268668.4211729642</v>
       </c>
       <c r="M2" t="n">
         <v>268668.4211729635</v>
       </c>
       <c r="N2" t="n">
-        <v>268668.4211729635</v>
+        <v>268668.4211729636</v>
       </c>
       <c r="O2" t="n">
         <v>268668.4211729635</v>
       </c>
       <c r="P2" t="n">
-        <v>268668.4211729635</v>
+        <v>268668.4211729634</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.43465328505954e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>362048.9252968761</v>
+        <v>362048.9252968763</v>
       </c>
       <c r="F3" t="n">
-        <v>1.023181539494544e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>68779.16914482271</v>
+        <v>68779.16914482262</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>95988.59326042388</v>
+        <v>95988.59326042404</v>
       </c>
       <c r="K3" t="n">
-        <v>1.023181539494544e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>68779.16914482269</v>
       </c>
       <c r="M3" t="n">
-        <v>131151.7302600868</v>
+        <v>131151.7302600867</v>
       </c>
       <c r="N3" t="n">
-        <v>1.364242052659392e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>12698.26679335284</v>
+        <v>12698.2667933531</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>406144.6554248994</v>
       </c>
       <c r="E4" t="n">
-        <v>269512.7787772501</v>
+        <v>269512.7787772503</v>
       </c>
       <c r="F4" t="n">
-        <v>269512.7787772502</v>
+        <v>269512.7787772503</v>
       </c>
       <c r="G4" t="n">
         <v>325406.9288688835</v>
@@ -26442,10 +26442,10 @@
         <v>317805.2942541981</v>
       </c>
       <c r="K4" t="n">
-        <v>317805.294254198</v>
+        <v>317805.2942541981</v>
       </c>
       <c r="L4" t="n">
-        <v>317805.294254198</v>
+        <v>317805.2942541981</v>
       </c>
       <c r="M4" t="n">
         <v>316819.7942584807</v>
@@ -26457,7 +26457,7 @@
         <v>316819.7942584808</v>
       </c>
       <c r="P4" t="n">
-        <v>316819.7942584807</v>
+        <v>316819.7942584808</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.60000000003</v>
+        <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>45557.38727738689</v>
+      </c>
+      <c r="F5" t="n">
         <v>45557.38727738688</v>
       </c>
-      <c r="F5" t="n">
-        <v>45557.38727738689</v>
-      </c>
       <c r="G5" t="n">
-        <v>52785.13224093201</v>
+        <v>52785.132240932</v>
       </c>
       <c r="H5" t="n">
-        <v>52785.13224093203</v>
+        <v>52785.132240932</v>
       </c>
       <c r="I5" t="n">
         <v>52785.13224093201</v>
@@ -26497,7 +26497,7 @@
         <v>64912.1282582537</v>
       </c>
       <c r="L5" t="n">
-        <v>64912.12825825368</v>
+        <v>64912.12825825371</v>
       </c>
       <c r="M5" t="n">
         <v>57669.05213679501</v>
@@ -26506,7 +26506,7 @@
         <v>57669.05213679501</v>
       </c>
       <c r="O5" t="n">
-        <v>57669.05213679501</v>
+        <v>57669.05213679502</v>
       </c>
       <c r="P5" t="n">
         <v>57669.05213679501</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-171715.4343973429</v>
+        <v>-171719.8029698101</v>
       </c>
       <c r="C6" t="n">
-        <v>-171715.4343973429</v>
+        <v>-171719.8029698102</v>
       </c>
       <c r="D6" t="n">
-        <v>-171715.434397343</v>
+        <v>-171719.8029698101</v>
       </c>
       <c r="E6" t="n">
-        <v>-442868.7120095941</v>
+        <v>-443114.5551655306</v>
       </c>
       <c r="F6" t="n">
-        <v>-80819.78671271814</v>
+        <v>-81065.62986865432</v>
       </c>
       <c r="G6" t="n">
-        <v>-178302.8090816745</v>
+        <v>-178302.8090816744</v>
       </c>
       <c r="H6" t="n">
-        <v>-109523.6399368516</v>
+        <v>-109523.6399368515</v>
       </c>
       <c r="I6" t="n">
-        <v>-109523.6399368517</v>
+        <v>-109523.6399368514</v>
       </c>
       <c r="J6" t="n">
-        <v>-210037.594599912</v>
+        <v>-210037.5945999121</v>
       </c>
       <c r="K6" t="n">
-        <v>-114049.0013394882</v>
+        <v>-114049.001339488</v>
       </c>
       <c r="L6" t="n">
-        <v>-182828.1704843105</v>
+        <v>-182828.1704843103</v>
       </c>
       <c r="M6" t="n">
         <v>-236972.155482399</v>
       </c>
       <c r="N6" t="n">
-        <v>-105820.4252223124</v>
+        <v>-105820.4252223122</v>
       </c>
       <c r="O6" t="n">
-        <v>-118518.6920156651</v>
+        <v>-118518.6920156654</v>
       </c>
       <c r="P6" t="n">
         <v>-105820.4252223123</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="F2" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="G2" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="H2" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="I2" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="J2" t="n">
         <v>101.8467949227196</v>
@@ -26713,16 +26713,16 @@
         <v>101.8467949227196</v>
       </c>
       <c r="L2" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="M2" t="n">
         <v>149.9227980865999</v>
       </c>
       <c r="N2" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="O2" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="P2" t="n">
         <v>149.9227980865999</v>
@@ -26747,7 +26747,7 @@
         <v>142.0189655653003</v>
       </c>
       <c r="F3" t="n">
-        <v>142.0189655653003</v>
+        <v>142.0189655653002</v>
       </c>
       <c r="G3" t="n">
         <v>142.0189655653003</v>
@@ -26759,25 +26759,25 @@
         <v>142.0189655653003</v>
       </c>
       <c r="J3" t="n">
+        <v>142.0189655653003</v>
+      </c>
+      <c r="K3" t="n">
         <v>142.0189655653002</v>
       </c>
-      <c r="K3" t="n">
-        <v>142.0189655653003</v>
-      </c>
       <c r="L3" t="n">
-        <v>142.0189655653003</v>
+        <v>142.0189655653002</v>
       </c>
       <c r="M3" t="n">
-        <v>142.0189655653003</v>
+        <v>142.0189655653002</v>
       </c>
       <c r="N3" t="n">
-        <v>142.0189655653003</v>
+        <v>142.0189655653002</v>
       </c>
       <c r="O3" t="n">
-        <v>142.0189655653003</v>
+        <v>142.0189655653002</v>
       </c>
       <c r="P3" t="n">
-        <v>142.0189655653003</v>
+        <v>142.0189655653002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,43 +26793,43 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>557.5528885806782</v>
+        <v>557.5528885806781</v>
       </c>
       <c r="F4" t="n">
-        <v>557.5528885806782</v>
+        <v>557.5528885806781</v>
       </c>
       <c r="G4" t="n">
-        <v>557.5528885806782</v>
+        <v>557.5528885806781</v>
       </c>
       <c r="H4" t="n">
-        <v>557.5528885806784</v>
+        <v>557.5528885806781</v>
       </c>
       <c r="I4" t="n">
-        <v>557.5528885806782</v>
+        <v>557.5528885806783</v>
       </c>
       <c r="J4" t="n">
         <v>875.8874441870404</v>
       </c>
       <c r="K4" t="n">
-        <v>875.8874441870403</v>
+        <v>875.8874441870402</v>
       </c>
       <c r="L4" t="n">
-        <v>875.8874441870399</v>
+        <v>875.8874441870402</v>
       </c>
       <c r="M4" t="n">
-        <v>690.2825489330445</v>
+        <v>690.2825489330444</v>
       </c>
       <c r="N4" t="n">
-        <v>690.2825489330442</v>
+        <v>690.2825489330444</v>
       </c>
       <c r="O4" t="n">
-        <v>690.2825489330442</v>
+        <v>690.2825489330444</v>
       </c>
       <c r="P4" t="n">
-        <v>690.2825489330445</v>
+        <v>690.2825489330444</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="F2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>85.97396143102839</v>
+        <v>85.97396143102827</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.87283349169105</v>
+        <v>15.8728334916913</v>
       </c>
       <c r="K2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>85.97396143102837</v>
       </c>
       <c r="M2" t="n">
-        <v>48.07600316388034</v>
+        <v>48.07600316388026</v>
       </c>
       <c r="N2" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.87283349169105</v>
+        <v>15.87283349169138</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>557.5528885806777</v>
+        <v>557.5528885806781</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>318.3345556063622</v>
+        <v>318.3345556063621</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="K2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.97396143102839</v>
+        <v>85.97396143102827</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.87283349169105</v>
+        <v>15.8728334916913</v>
       </c>
       <c r="P2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>557.5528885806777</v>
+        <v>557.5528885806781</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.103104122838</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805211</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949523</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27919,7 +27919,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699208</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27941,7 +27941,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696239</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -27983,10 +27983,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956742</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776725</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -27998,7 +27998,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.596113086916</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284739</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -28065,16 +28065,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157907</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677744</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>228.9399394635775</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="C11" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="D11" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="E11" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="F11" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="G11" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="H11" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="I11" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>53.86818968657737</v>
       </c>
       <c r="S11" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="T11" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="U11" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="V11" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="W11" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="X11" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="Y11" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
     </row>
     <row r="12">
@@ -28172,13 +28172,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>29.16851930417356</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -28217,16 +28217,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>101.8467949227194</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>101.8467949227194</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.16851930417326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="C13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="D13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="E13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="F13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="G13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="H13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="I13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="J13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="K13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="L13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="M13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="N13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="O13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="P13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="R13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="S13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="T13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="U13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="V13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="W13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="X13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="Y13" t="n">
-        <v>101.8467949227194</v>
+        <v>101.8467949227196</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="C14" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="D14" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="E14" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="F14" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="G14" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="H14" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="I14" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>53.86818968657737</v>
+        <v>53.8681896865774</v>
       </c>
       <c r="S14" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="T14" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="U14" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="V14" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="W14" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="X14" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="Y14" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>101.8467949227195</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28421,10 +28421,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>29.16851930417417</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>57.18102019563577</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,13 +28454,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="T15" t="n">
-        <v>86.34953949980914</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28472,7 +28472,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>101.8467949227195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="C16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="D16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="E16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="F16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="G16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="H16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="I16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="J16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="K16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="L16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="M16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="N16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="O16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="P16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="R16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="S16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="T16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="U16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="V16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="W16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="X16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="Y16" t="n">
-        <v>101.8467949227195</v>
+        <v>101.8467949227196</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="C17" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="D17" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="E17" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="F17" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="G17" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="H17" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="I17" t="n">
         <v>149.078228130101</v>
@@ -28615,22 +28615,22 @@
         <v>172.3466065091384</v>
       </c>
       <c r="T17" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="U17" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="V17" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="W17" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="X17" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="Y17" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
     </row>
     <row r="18">
@@ -28655,10 +28655,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>127.1357402208267</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>95.9882358393841</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>57.18102019563577</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.738133089401398</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>47.29513398935852</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>185.5669751602547</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.70710413248751</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>136.5113864621594</v>
       </c>
       <c r="S19" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="T19" t="n">
-        <v>187.8207563537479</v>
+        <v>52.13745532731966</v>
       </c>
       <c r="U19" t="n">
-        <v>35.43035119483184</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="W19" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="X19" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="Y19" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="C20" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="D20" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="E20" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="F20" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="G20" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="H20" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="I20" t="n">
         <v>149.078228130101</v>
@@ -28852,22 +28852,22 @@
         <v>172.3466065091384</v>
       </c>
       <c r="T20" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="U20" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="V20" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="W20" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="X20" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="Y20" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
     </row>
     <row r="21">
@@ -28892,10 +28892,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.1357402208267</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>95.9882358393841</v>
+        <v>47.04448134180177</v>
       </c>
       <c r="I21" t="n">
         <v>57.18102019563577</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>40.22019530522639</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>145.5974325025848</v>
       </c>
       <c r="T21" t="n">
-        <v>9.738133089400662</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>14.5840462129423</v>
+        <v>166.9744513718583</v>
       </c>
       <c r="H22" t="n">
         <v>155.5019589599474</v>
@@ -28980,7 +28980,7 @@
         <v>135.0593952961349</v>
       </c>
       <c r="J22" t="n">
-        <v>41.3504121802749</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>16.70710413248751</v>
       </c>
       <c r="R22" t="n">
-        <v>136.5113864621594</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>187.8207563537479</v>
+        <v>25.47139348351877</v>
       </c>
       <c r="T22" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="U22" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="V22" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="W22" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="X22" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>187.8207563537478</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="C23" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="D23" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="E23" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="F23" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="G23" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="H23" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="I23" t="n">
         <v>149.078228130101</v>
@@ -29089,22 +29089,22 @@
         <v>172.3466065091384</v>
       </c>
       <c r="T23" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="U23" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="V23" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="W23" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="X23" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="Y23" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
     </row>
     <row r="24">
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1357402208267</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>95.9882358393841</v>
@@ -29165,10 +29165,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>136.8738733102278</v>
       </c>
       <c r="T24" t="n">
-        <v>9.738133089401572</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29196,7 +29196,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29205,16 +29205,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>166.9744513718583</v>
+        <v>11.39020383461889</v>
       </c>
       <c r="H25" t="n">
         <v>155.5019589599474</v>
       </c>
       <c r="I25" t="n">
-        <v>82.31546867011107</v>
+        <v>135.0593952961349</v>
       </c>
       <c r="J25" t="n">
         <v>41.3504121802749</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.70710413248751</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>136.5113864621594</v>
       </c>
       <c r="S25" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="T25" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="U25" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="V25" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="W25" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="X25" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
       <c r="Y25" t="n">
-        <v>187.8207563537479</v>
+        <v>187.8207563537478</v>
       </c>
     </row>
     <row r="26">
@@ -29296,10 +29296,10 @@
         <v>101.8467949227196</v>
       </c>
       <c r="J26" t="n">
-        <v>101.8467949227196</v>
+        <v>75.86101855649422</v>
       </c>
       <c r="K26" t="n">
-        <v>101.8467949227196</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>101.8467949227196</v>
@@ -29311,10 +29311,10 @@
         <v>101.8467949227196</v>
       </c>
       <c r="O26" t="n">
-        <v>75.86101855649508</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="Q26" t="n">
         <v>101.8467949227196</v>
@@ -29536,13 +29536,13 @@
         <v>101.8467949227196</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="L29" t="n">
         <v>101.8467949227196</v>
       </c>
       <c r="M29" t="n">
-        <v>101.8467949227196</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>101.8467949227196</v>
@@ -29551,7 +29551,7 @@
         <v>101.8467949227196</v>
       </c>
       <c r="P29" t="n">
-        <v>75.86101855649349</v>
+        <v>75.8610185564936</v>
       </c>
       <c r="Q29" t="n">
         <v>101.8467949227196</v>
@@ -29706,7 +29706,7 @@
         <v>101.8467949227196</v>
       </c>
       <c r="O31" t="n">
-        <v>101.846794922719</v>
+        <v>101.8467949227196</v>
       </c>
       <c r="P31" t="n">
         <v>101.8467949227196</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="C32" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="D32" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="E32" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="F32" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="G32" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="H32" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="I32" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="J32" t="n">
-        <v>75.86101855649257</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="K32" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="L32" t="n">
-        <v>101.8467949227196</v>
+        <v>75.86101855649179</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="N32" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="O32" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="P32" t="n">
-        <v>101.8467949227196</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="R32" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="S32" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="T32" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="U32" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="V32" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="W32" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="X32" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="Y32" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="C34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="D34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="E34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="F34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="G34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="H34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="I34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="J34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="K34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227171</v>
       </c>
       <c r="L34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="M34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="N34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="O34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="P34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="R34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="S34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="T34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="U34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="V34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="W34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="X34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
       <c r="Y34" t="n">
-        <v>101.8467949227196</v>
+        <v>101.8467949227197</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>149.9227980865999</v>
       </c>
       <c r="I35" t="n">
-        <v>149.078228130101</v>
+        <v>149.0782281301011</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>53.86818968657737</v>
+        <v>53.86818968657739</v>
       </c>
       <c r="S35" t="n">
         <v>149.9227980865999</v>
@@ -30162,10 +30162,10 @@
         <v>149.9227980865999</v>
       </c>
       <c r="I37" t="n">
-        <v>135.7908938011252</v>
+        <v>135.0593952961349</v>
       </c>
       <c r="J37" t="n">
-        <v>41.3504121802749</v>
+        <v>41.35041218027492</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.70710413248751</v>
+        <v>16.70710413248753</v>
       </c>
       <c r="R37" t="n">
-        <v>136.5113864621594</v>
+        <v>137.2428849671493</v>
       </c>
       <c r="S37" t="n">
         <v>149.9227980865999</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="C38" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="D38" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="E38" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="F38" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="G38" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="H38" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="I38" t="n">
-        <v>149.078228130101</v>
+        <v>149.0782281301011</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>53.86818968657737</v>
+        <v>53.86818968657739</v>
       </c>
       <c r="S38" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="T38" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="U38" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="V38" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="W38" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="X38" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="Y38" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
     </row>
     <row r="39">
@@ -30378,31 +30378,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="C40" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="D40" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="E40" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="F40" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="G40" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="H40" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="I40" t="n">
         <v>135.0593952961349</v>
       </c>
       <c r="J40" t="n">
-        <v>41.3504121802749</v>
+        <v>41.35041218027492</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.70710413248751</v>
+        <v>16.70710413248753</v>
       </c>
       <c r="R40" t="n">
-        <v>137.2428849671472</v>
+        <v>137.2428849671493</v>
       </c>
       <c r="S40" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="T40" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="U40" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="V40" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="W40" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="X40" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
       <c r="Y40" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980865999</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="C41" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="D41" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="E41" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="F41" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="G41" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="H41" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="I41" t="n">
-        <v>149.078228130101</v>
+        <v>149.0782281301011</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>53.86818968657737</v>
+        <v>53.86818968657739</v>
       </c>
       <c r="S41" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="T41" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="U41" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="V41" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="W41" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="X41" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="C43" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="D43" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="E43" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="F43" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="G43" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="H43" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="I43" t="n">
         <v>135.0593952961349</v>
       </c>
       <c r="J43" t="n">
-        <v>41.3504121802749</v>
+        <v>41.35041218027492</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.70710413248751</v>
+        <v>16.70710413248753</v>
       </c>
       <c r="R43" t="n">
-        <v>137.2428849671472</v>
+        <v>137.2428849671481</v>
       </c>
       <c r="S43" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="T43" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="U43" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="V43" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="W43" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="X43" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
       <c r="Y43" t="n">
-        <v>149.9227980866001</v>
+        <v>149.9227980866</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>149.9227980865999</v>
       </c>
       <c r="I44" t="n">
-        <v>149.078228130101</v>
+        <v>149.0782281301011</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>53.86818968657737</v>
+        <v>53.86818968657739</v>
       </c>
       <c r="S44" t="n">
         <v>149.9227980865999</v>
@@ -30876,7 +30876,7 @@
         <v>135.0593952961349</v>
       </c>
       <c r="J46" t="n">
-        <v>41.3504121802749</v>
+        <v>41.35041218027492</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.70710413248751</v>
+        <v>16.70710413248753</v>
       </c>
       <c r="R46" t="n">
         <v>137.2428849671493</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5709305148353776</v>
+        <v>0.5709305148353772</v>
       </c>
       <c r="H14" t="n">
-        <v>5.847042135057812</v>
+        <v>5.847042135057808</v>
       </c>
       <c r="I14" t="n">
-        <v>22.01079867319092</v>
+        <v>22.0107986731909</v>
       </c>
       <c r="J14" t="n">
-        <v>48.45701378350917</v>
+        <v>48.45701378350913</v>
       </c>
       <c r="K14" t="n">
-        <v>72.62450247649072</v>
+        <v>72.62450247649066</v>
       </c>
       <c r="L14" t="n">
-        <v>90.09711721988393</v>
+        <v>90.09711721988386</v>
       </c>
       <c r="M14" t="n">
-        <v>100.2504027630876</v>
+        <v>100.2504027630875</v>
       </c>
       <c r="N14" t="n">
-        <v>101.8725590883636</v>
+        <v>101.8725590883635</v>
       </c>
       <c r="O14" t="n">
-        <v>96.1953687814693</v>
+        <v>96.19536878146921</v>
       </c>
       <c r="P14" t="n">
-        <v>82.10052169647091</v>
+        <v>82.10052169647084</v>
       </c>
       <c r="Q14" t="n">
-        <v>61.65407263392892</v>
+        <v>61.65407263392887</v>
       </c>
       <c r="R14" t="n">
-        <v>35.86371395252782</v>
+        <v>35.86371395252779</v>
       </c>
       <c r="S14" t="n">
-        <v>13.01007910681118</v>
+        <v>13.01007910681117</v>
       </c>
       <c r="T14" t="n">
-        <v>2.499248328691867</v>
+        <v>2.499248328691865</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04567444118683019</v>
+        <v>0.04567444118683016</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3054747561215893</v>
+        <v>0.305474756121589</v>
       </c>
       <c r="H15" t="n">
-        <v>2.950243039384823</v>
+        <v>2.950243039384821</v>
       </c>
       <c r="I15" t="n">
-        <v>10.51744226120384</v>
+        <v>10.51744226120383</v>
       </c>
       <c r="J15" t="n">
-        <v>28.86066544568051</v>
+        <v>28.86066544568049</v>
       </c>
       <c r="K15" t="n">
-        <v>49.32747410582699</v>
+        <v>49.32747410582695</v>
       </c>
       <c r="L15" t="n">
-        <v>66.32687632368105</v>
+        <v>66.32687632368099</v>
       </c>
       <c r="M15" t="n">
-        <v>77.40033623308864</v>
+        <v>77.40033623308858</v>
       </c>
       <c r="N15" t="n">
-        <v>79.44889282129002</v>
+        <v>79.44889282128995</v>
       </c>
       <c r="O15" t="n">
-        <v>72.68021533038532</v>
+        <v>72.68021533038527</v>
       </c>
       <c r="P15" t="n">
-        <v>58.33228040360419</v>
+        <v>58.33228040360414</v>
       </c>
       <c r="Q15" t="n">
-        <v>38.99358465860849</v>
+        <v>38.99358465860846</v>
       </c>
       <c r="R15" t="n">
-        <v>18.96623091077728</v>
+        <v>18.96623091077726</v>
       </c>
       <c r="S15" t="n">
-        <v>5.674059614802323</v>
+        <v>5.674059614802319</v>
       </c>
       <c r="T15" t="n">
-        <v>1.231277635419914</v>
+        <v>1.231277635419913</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02009702342905193</v>
+        <v>0.02009702342905192</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2560997739702136</v>
+        <v>0.2560997739702134</v>
       </c>
       <c r="H16" t="n">
-        <v>2.276959808571537</v>
+        <v>2.276959808571535</v>
       </c>
       <c r="I16" t="n">
-        <v>7.701618657213334</v>
+        <v>7.701618657213328</v>
       </c>
       <c r="J16" t="n">
-        <v>18.1062540196941</v>
+        <v>18.10625401969408</v>
       </c>
       <c r="K16" t="n">
-        <v>29.75413737581208</v>
+        <v>29.75413737581206</v>
       </c>
       <c r="L16" t="n">
-        <v>38.07505185008067</v>
+        <v>38.07505185008064</v>
       </c>
       <c r="M16" t="n">
-        <v>40.14480365971266</v>
+        <v>40.14480365971262</v>
       </c>
       <c r="N16" t="n">
-        <v>39.1902499567328</v>
+        <v>39.19024995673277</v>
       </c>
       <c r="O16" t="n">
-        <v>36.19853896080802</v>
+        <v>36.19853896080799</v>
       </c>
       <c r="P16" t="n">
-        <v>30.97410357181564</v>
+        <v>30.97410357181561</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.44486380036034</v>
+        <v>21.44486380036032</v>
       </c>
       <c r="R16" t="n">
-        <v>11.51517710960615</v>
+        <v>11.51517710960614</v>
       </c>
       <c r="S16" t="n">
-        <v>4.463120606371811</v>
+        <v>4.463120606371808</v>
       </c>
       <c r="T16" t="n">
         <v>1.094244488781821</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01396907858019348</v>
+        <v>0.01396907858019347</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5709305148353772</v>
+        <v>0.5709305148353776</v>
       </c>
       <c r="H26" t="n">
-        <v>5.847042135057808</v>
+        <v>5.847042135057812</v>
       </c>
       <c r="I26" t="n">
-        <v>22.0107986731909</v>
+        <v>22.01079867319092</v>
       </c>
       <c r="J26" t="n">
-        <v>48.45701378350913</v>
+        <v>48.45701378350917</v>
       </c>
       <c r="K26" t="n">
-        <v>72.62450247649066</v>
+        <v>72.62450247649072</v>
       </c>
       <c r="L26" t="n">
-        <v>90.09711721988386</v>
+        <v>90.09711721988393</v>
       </c>
       <c r="M26" t="n">
-        <v>100.2504027630875</v>
+        <v>100.2504027630876</v>
       </c>
       <c r="N26" t="n">
-        <v>101.8725590883635</v>
+        <v>101.8725590883636</v>
       </c>
       <c r="O26" t="n">
-        <v>96.19536878146921</v>
+        <v>96.1953687814693</v>
       </c>
       <c r="P26" t="n">
-        <v>82.10052169647084</v>
+        <v>82.10052169647091</v>
       </c>
       <c r="Q26" t="n">
-        <v>61.65407263392887</v>
+        <v>61.65407263392892</v>
       </c>
       <c r="R26" t="n">
-        <v>35.86371395252779</v>
+        <v>35.86371395252782</v>
       </c>
       <c r="S26" t="n">
-        <v>13.01007910681117</v>
+        <v>13.01007910681118</v>
       </c>
       <c r="T26" t="n">
-        <v>2.499248328691865</v>
+        <v>2.499248328691867</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04567444118683016</v>
+        <v>0.04567444118683019</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.305474756121589</v>
+        <v>0.3054747561215893</v>
       </c>
       <c r="H27" t="n">
-        <v>2.950243039384821</v>
+        <v>2.950243039384823</v>
       </c>
       <c r="I27" t="n">
-        <v>10.51744226120383</v>
+        <v>10.51744226120384</v>
       </c>
       <c r="J27" t="n">
-        <v>28.86066544568049</v>
+        <v>28.86066544568051</v>
       </c>
       <c r="K27" t="n">
-        <v>49.32747410582695</v>
+        <v>49.32747410582699</v>
       </c>
       <c r="L27" t="n">
-        <v>66.32687632368099</v>
+        <v>66.32687632368105</v>
       </c>
       <c r="M27" t="n">
-        <v>77.40033623308858</v>
+        <v>77.40033623308864</v>
       </c>
       <c r="N27" t="n">
-        <v>79.44889282128995</v>
+        <v>79.44889282129002</v>
       </c>
       <c r="O27" t="n">
-        <v>72.68021533038527</v>
+        <v>72.68021533038532</v>
       </c>
       <c r="P27" t="n">
-        <v>58.33228040360414</v>
+        <v>58.33228040360419</v>
       </c>
       <c r="Q27" t="n">
-        <v>38.99358465860846</v>
+        <v>38.99358465860849</v>
       </c>
       <c r="R27" t="n">
-        <v>18.96623091077726</v>
+        <v>18.96623091077728</v>
       </c>
       <c r="S27" t="n">
-        <v>5.674059614802319</v>
+        <v>5.674059614802323</v>
       </c>
       <c r="T27" t="n">
-        <v>1.231277635419913</v>
+        <v>1.231277635419914</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02009702342905192</v>
+        <v>0.02009702342905193</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2560997739702134</v>
+        <v>0.2560997739702136</v>
       </c>
       <c r="H28" t="n">
-        <v>2.276959808571535</v>
+        <v>2.276959808571537</v>
       </c>
       <c r="I28" t="n">
-        <v>7.701618657213328</v>
+        <v>7.701618657213334</v>
       </c>
       <c r="J28" t="n">
-        <v>18.10625401969408</v>
+        <v>18.1062540196941</v>
       </c>
       <c r="K28" t="n">
-        <v>29.75413737581206</v>
+        <v>29.75413737581208</v>
       </c>
       <c r="L28" t="n">
-        <v>38.07505185008064</v>
+        <v>38.07505185008067</v>
       </c>
       <c r="M28" t="n">
-        <v>40.14480365971262</v>
+        <v>40.14480365971266</v>
       </c>
       <c r="N28" t="n">
-        <v>39.19024995673277</v>
+        <v>39.1902499567328</v>
       </c>
       <c r="O28" t="n">
-        <v>36.19853896080799</v>
+        <v>36.19853896080802</v>
       </c>
       <c r="P28" t="n">
-        <v>30.97410357181561</v>
+        <v>30.97410357181564</v>
       </c>
       <c r="Q28" t="n">
-        <v>21.44486380036032</v>
+        <v>21.44486380036034</v>
       </c>
       <c r="R28" t="n">
-        <v>11.51517710960614</v>
+        <v>11.51517710960615</v>
       </c>
       <c r="S28" t="n">
-        <v>4.463120606371808</v>
+        <v>4.463120606371811</v>
       </c>
       <c r="T28" t="n">
         <v>1.094244488781821</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01396907858019347</v>
+        <v>0.01396907858019348</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5709305148353776</v>
+        <v>0.5709305148353773</v>
       </c>
       <c r="H29" t="n">
-        <v>5.847042135057812</v>
+        <v>5.847042135057809</v>
       </c>
       <c r="I29" t="n">
-        <v>22.01079867319092</v>
+        <v>22.0107986731909</v>
       </c>
       <c r="J29" t="n">
-        <v>48.45701378350917</v>
+        <v>48.45701378350914</v>
       </c>
       <c r="K29" t="n">
-        <v>72.62450247649072</v>
+        <v>72.62450247649068</v>
       </c>
       <c r="L29" t="n">
-        <v>90.09711721988393</v>
+        <v>90.09711721988387</v>
       </c>
       <c r="M29" t="n">
-        <v>100.2504027630876</v>
+        <v>100.2504027630875</v>
       </c>
       <c r="N29" t="n">
-        <v>101.8725590883636</v>
+        <v>101.8725590883635</v>
       </c>
       <c r="O29" t="n">
-        <v>96.1953687814693</v>
+        <v>96.19536878146924</v>
       </c>
       <c r="P29" t="n">
-        <v>82.10052169647091</v>
+        <v>82.10052169647085</v>
       </c>
       <c r="Q29" t="n">
-        <v>61.65407263392892</v>
+        <v>61.65407263392888</v>
       </c>
       <c r="R29" t="n">
-        <v>35.86371395252782</v>
+        <v>35.8637139525278</v>
       </c>
       <c r="S29" t="n">
-        <v>13.01007910681118</v>
+        <v>13.01007910681117</v>
       </c>
       <c r="T29" t="n">
-        <v>2.499248328691867</v>
+        <v>2.499248328691865</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04567444118683019</v>
+        <v>0.04567444118683017</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3054747561215893</v>
+        <v>0.3054747561215891</v>
       </c>
       <c r="H30" t="n">
-        <v>2.950243039384823</v>
+        <v>2.950243039384822</v>
       </c>
       <c r="I30" t="n">
         <v>10.51744226120384</v>
       </c>
       <c r="J30" t="n">
-        <v>28.86066544568051</v>
+        <v>28.86066544568049</v>
       </c>
       <c r="K30" t="n">
-        <v>49.32747410582699</v>
+        <v>49.32747410582696</v>
       </c>
       <c r="L30" t="n">
-        <v>66.32687632368105</v>
+        <v>66.32687632368101</v>
       </c>
       <c r="M30" t="n">
-        <v>77.40033623308864</v>
+        <v>77.40033623308859</v>
       </c>
       <c r="N30" t="n">
-        <v>79.44889282129002</v>
+        <v>79.44889282128997</v>
       </c>
       <c r="O30" t="n">
-        <v>72.68021533038532</v>
+        <v>72.68021533038528</v>
       </c>
       <c r="P30" t="n">
-        <v>58.33228040360419</v>
+        <v>58.33228040360415</v>
       </c>
       <c r="Q30" t="n">
-        <v>38.99358465860849</v>
+        <v>38.99358465860846</v>
       </c>
       <c r="R30" t="n">
-        <v>18.96623091077728</v>
+        <v>18.96623091077727</v>
       </c>
       <c r="S30" t="n">
-        <v>5.674059614802323</v>
+        <v>5.67405961480232</v>
       </c>
       <c r="T30" t="n">
         <v>1.231277635419914</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02009702342905193</v>
+        <v>0.02009702342905192</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,43 +33330,43 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2560997739702136</v>
+        <v>0.2560997739702134</v>
       </c>
       <c r="H31" t="n">
-        <v>2.276959808571537</v>
+        <v>2.276959808571536</v>
       </c>
       <c r="I31" t="n">
-        <v>7.701618657213334</v>
+        <v>7.70161865721333</v>
       </c>
       <c r="J31" t="n">
-        <v>18.1062540196941</v>
+        <v>18.10625401969409</v>
       </c>
       <c r="K31" t="n">
-        <v>29.75413737581208</v>
+        <v>29.75413737581206</v>
       </c>
       <c r="L31" t="n">
-        <v>38.07505185008067</v>
+        <v>38.07505185008065</v>
       </c>
       <c r="M31" t="n">
-        <v>40.14480365971266</v>
+        <v>40.14480365971264</v>
       </c>
       <c r="N31" t="n">
-        <v>39.1902499567328</v>
+        <v>39.19024995673278</v>
       </c>
       <c r="O31" t="n">
-        <v>36.19853896080802</v>
+        <v>36.198538960808</v>
       </c>
       <c r="P31" t="n">
-        <v>30.97410357181564</v>
+        <v>30.97410357181562</v>
       </c>
       <c r="Q31" t="n">
-        <v>21.44486380036034</v>
+        <v>21.44486380036033</v>
       </c>
       <c r="R31" t="n">
-        <v>11.51517710960615</v>
+        <v>11.51517710960614</v>
       </c>
       <c r="S31" t="n">
-        <v>4.463120606371811</v>
+        <v>4.463120606371809</v>
       </c>
       <c r="T31" t="n">
         <v>1.094244488781821</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5709305148353776</v>
+        <v>0.5709305148353773</v>
       </c>
       <c r="H32" t="n">
-        <v>5.847042135057812</v>
+        <v>5.847042135057809</v>
       </c>
       <c r="I32" t="n">
-        <v>22.01079867319092</v>
+        <v>22.0107986731909</v>
       </c>
       <c r="J32" t="n">
-        <v>48.45701378350917</v>
+        <v>48.45701378350914</v>
       </c>
       <c r="K32" t="n">
-        <v>72.62450247649072</v>
+        <v>72.62450247649068</v>
       </c>
       <c r="L32" t="n">
-        <v>90.09711721988393</v>
+        <v>90.09711721988387</v>
       </c>
       <c r="M32" t="n">
-        <v>100.2504027630876</v>
+        <v>100.2504027630875</v>
       </c>
       <c r="N32" t="n">
-        <v>101.8725590883636</v>
+        <v>101.8725590883635</v>
       </c>
       <c r="O32" t="n">
-        <v>96.1953687814693</v>
+        <v>96.19536878146924</v>
       </c>
       <c r="P32" t="n">
-        <v>82.10052169647091</v>
+        <v>82.10052169647085</v>
       </c>
       <c r="Q32" t="n">
-        <v>61.65407263392892</v>
+        <v>61.65407263392888</v>
       </c>
       <c r="R32" t="n">
-        <v>35.86371395252782</v>
+        <v>35.8637139525278</v>
       </c>
       <c r="S32" t="n">
-        <v>13.01007910681118</v>
+        <v>13.01007910681117</v>
       </c>
       <c r="T32" t="n">
-        <v>2.499248328691867</v>
+        <v>2.499248328691865</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04567444118683019</v>
+        <v>0.04567444118683017</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3054747561215893</v>
+        <v>0.3054747561215891</v>
       </c>
       <c r="H33" t="n">
-        <v>2.950243039384823</v>
+        <v>2.950243039384822</v>
       </c>
       <c r="I33" t="n">
         <v>10.51744226120384</v>
       </c>
       <c r="J33" t="n">
-        <v>28.86066544568051</v>
+        <v>28.86066544568049</v>
       </c>
       <c r="K33" t="n">
-        <v>49.32747410582699</v>
+        <v>49.32747410582696</v>
       </c>
       <c r="L33" t="n">
-        <v>66.32687632368105</v>
+        <v>66.32687632368101</v>
       </c>
       <c r="M33" t="n">
-        <v>77.40033623308864</v>
+        <v>77.40033623308859</v>
       </c>
       <c r="N33" t="n">
-        <v>79.44889282129002</v>
+        <v>79.44889282128997</v>
       </c>
       <c r="O33" t="n">
-        <v>72.68021533038532</v>
+        <v>72.68021533038528</v>
       </c>
       <c r="P33" t="n">
-        <v>58.33228040360419</v>
+        <v>58.33228040360415</v>
       </c>
       <c r="Q33" t="n">
-        <v>38.99358465860849</v>
+        <v>38.99358465860846</v>
       </c>
       <c r="R33" t="n">
-        <v>18.96623091077728</v>
+        <v>18.96623091077727</v>
       </c>
       <c r="S33" t="n">
-        <v>5.674059614802323</v>
+        <v>5.67405961480232</v>
       </c>
       <c r="T33" t="n">
         <v>1.231277635419914</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02009702342905193</v>
+        <v>0.02009702342905192</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,43 +33567,43 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2560997739702136</v>
+        <v>0.2560997739702134</v>
       </c>
       <c r="H34" t="n">
-        <v>2.276959808571537</v>
+        <v>2.276959808571536</v>
       </c>
       <c r="I34" t="n">
-        <v>7.701618657213334</v>
+        <v>7.70161865721333</v>
       </c>
       <c r="J34" t="n">
-        <v>18.1062540196941</v>
+        <v>18.10625401969409</v>
       </c>
       <c r="K34" t="n">
-        <v>29.75413737581208</v>
+        <v>29.75413737581206</v>
       </c>
       <c r="L34" t="n">
-        <v>38.07505185008067</v>
+        <v>38.07505185008065</v>
       </c>
       <c r="M34" t="n">
-        <v>40.14480365971266</v>
+        <v>40.14480365971264</v>
       </c>
       <c r="N34" t="n">
-        <v>39.1902499567328</v>
+        <v>39.19024995673278</v>
       </c>
       <c r="O34" t="n">
-        <v>36.19853896080802</v>
+        <v>36.198538960808</v>
       </c>
       <c r="P34" t="n">
-        <v>30.97410357181564</v>
+        <v>30.97410357181562</v>
       </c>
       <c r="Q34" t="n">
-        <v>21.44486380036034</v>
+        <v>21.44486380036033</v>
       </c>
       <c r="R34" t="n">
-        <v>11.51517710960615</v>
+        <v>11.51517710960614</v>
       </c>
       <c r="S34" t="n">
-        <v>4.463120606371811</v>
+        <v>4.463120606371809</v>
       </c>
       <c r="T34" t="n">
         <v>1.094244488781821</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5709305148353776</v>
+        <v>0.5709305148353773</v>
       </c>
       <c r="H35" t="n">
-        <v>5.847042135057812</v>
+        <v>5.847042135057809</v>
       </c>
       <c r="I35" t="n">
-        <v>22.01079867319092</v>
+        <v>22.0107986731909</v>
       </c>
       <c r="J35" t="n">
-        <v>48.45701378350917</v>
+        <v>48.45701378350914</v>
       </c>
       <c r="K35" t="n">
-        <v>72.62450247649072</v>
+        <v>72.62450247649068</v>
       </c>
       <c r="L35" t="n">
-        <v>90.09711721988393</v>
+        <v>90.09711721988387</v>
       </c>
       <c r="M35" t="n">
-        <v>100.2504027630876</v>
+        <v>100.2504027630875</v>
       </c>
       <c r="N35" t="n">
-        <v>101.8725590883636</v>
+        <v>101.8725590883635</v>
       </c>
       <c r="O35" t="n">
-        <v>96.1953687814693</v>
+        <v>96.19536878146924</v>
       </c>
       <c r="P35" t="n">
-        <v>82.10052169647091</v>
+        <v>82.10052169647085</v>
       </c>
       <c r="Q35" t="n">
-        <v>61.65407263392892</v>
+        <v>61.65407263392888</v>
       </c>
       <c r="R35" t="n">
-        <v>35.86371395252782</v>
+        <v>35.8637139525278</v>
       </c>
       <c r="S35" t="n">
-        <v>13.01007910681118</v>
+        <v>13.01007910681117</v>
       </c>
       <c r="T35" t="n">
-        <v>2.499248328691867</v>
+        <v>2.499248328691865</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04567444118683019</v>
+        <v>0.04567444118683017</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3054747561215893</v>
+        <v>0.3054747561215891</v>
       </c>
       <c r="H36" t="n">
-        <v>2.950243039384823</v>
+        <v>2.950243039384822</v>
       </c>
       <c r="I36" t="n">
         <v>10.51744226120384</v>
       </c>
       <c r="J36" t="n">
-        <v>28.86066544568051</v>
+        <v>28.86066544568049</v>
       </c>
       <c r="K36" t="n">
-        <v>49.32747410582699</v>
+        <v>49.32747410582696</v>
       </c>
       <c r="L36" t="n">
-        <v>66.32687632368105</v>
+        <v>66.32687632368101</v>
       </c>
       <c r="M36" t="n">
-        <v>77.40033623308864</v>
+        <v>77.40033623308859</v>
       </c>
       <c r="N36" t="n">
-        <v>79.44889282129002</v>
+        <v>79.44889282128997</v>
       </c>
       <c r="O36" t="n">
-        <v>72.68021533038532</v>
+        <v>72.68021533038528</v>
       </c>
       <c r="P36" t="n">
-        <v>58.33228040360419</v>
+        <v>58.33228040360415</v>
       </c>
       <c r="Q36" t="n">
-        <v>38.99358465860849</v>
+        <v>38.99358465860846</v>
       </c>
       <c r="R36" t="n">
-        <v>18.96623091077728</v>
+        <v>18.96623091077727</v>
       </c>
       <c r="S36" t="n">
-        <v>5.674059614802323</v>
+        <v>5.67405961480232</v>
       </c>
       <c r="T36" t="n">
         <v>1.231277635419914</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02009702342905193</v>
+        <v>0.02009702342905192</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,43 +33804,43 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2560997739702136</v>
+        <v>0.2560997739702134</v>
       </c>
       <c r="H37" t="n">
-        <v>2.276959808571537</v>
+        <v>2.276959808571536</v>
       </c>
       <c r="I37" t="n">
-        <v>7.701618657213334</v>
+        <v>7.70161865721333</v>
       </c>
       <c r="J37" t="n">
-        <v>18.1062540196941</v>
+        <v>18.10625401969409</v>
       </c>
       <c r="K37" t="n">
-        <v>29.75413737581208</v>
+        <v>29.75413737581206</v>
       </c>
       <c r="L37" t="n">
-        <v>38.07505185008067</v>
+        <v>38.07505185008065</v>
       </c>
       <c r="M37" t="n">
-        <v>40.14480365971266</v>
+        <v>40.14480365971264</v>
       </c>
       <c r="N37" t="n">
-        <v>39.1902499567328</v>
+        <v>39.19024995673278</v>
       </c>
       <c r="O37" t="n">
-        <v>36.19853896080802</v>
+        <v>36.198538960808</v>
       </c>
       <c r="P37" t="n">
-        <v>30.97410357181564</v>
+        <v>30.97410357181562</v>
       </c>
       <c r="Q37" t="n">
-        <v>21.44486380036034</v>
+        <v>21.44486380036033</v>
       </c>
       <c r="R37" t="n">
-        <v>11.51517710960615</v>
+        <v>11.51517710960614</v>
       </c>
       <c r="S37" t="n">
-        <v>4.463120606371811</v>
+        <v>4.463120606371809</v>
       </c>
       <c r="T37" t="n">
         <v>1.094244488781821</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5709305148353776</v>
+        <v>0.5709305148353773</v>
       </c>
       <c r="H38" t="n">
-        <v>5.847042135057812</v>
+        <v>5.847042135057809</v>
       </c>
       <c r="I38" t="n">
-        <v>22.01079867319092</v>
+        <v>22.0107986731909</v>
       </c>
       <c r="J38" t="n">
-        <v>48.45701378350917</v>
+        <v>48.45701378350914</v>
       </c>
       <c r="K38" t="n">
-        <v>72.62450247649072</v>
+        <v>72.62450247649068</v>
       </c>
       <c r="L38" t="n">
-        <v>90.09711721988393</v>
+        <v>90.09711721988387</v>
       </c>
       <c r="M38" t="n">
-        <v>100.2504027630876</v>
+        <v>100.2504027630875</v>
       </c>
       <c r="N38" t="n">
-        <v>101.8725590883636</v>
+        <v>101.8725590883635</v>
       </c>
       <c r="O38" t="n">
-        <v>96.1953687814693</v>
+        <v>96.19536878146924</v>
       </c>
       <c r="P38" t="n">
-        <v>82.10052169647091</v>
+        <v>82.10052169647085</v>
       </c>
       <c r="Q38" t="n">
-        <v>61.65407263392892</v>
+        <v>61.65407263392888</v>
       </c>
       <c r="R38" t="n">
-        <v>35.86371395252782</v>
+        <v>35.8637139525278</v>
       </c>
       <c r="S38" t="n">
-        <v>13.01007910681118</v>
+        <v>13.01007910681117</v>
       </c>
       <c r="T38" t="n">
-        <v>2.499248328691867</v>
+        <v>2.499248328691865</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04567444118683019</v>
+        <v>0.04567444118683017</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3054747561215893</v>
+        <v>0.3054747561215891</v>
       </c>
       <c r="H39" t="n">
-        <v>2.950243039384823</v>
+        <v>2.950243039384822</v>
       </c>
       <c r="I39" t="n">
         <v>10.51744226120384</v>
       </c>
       <c r="J39" t="n">
-        <v>28.86066544568051</v>
+        <v>28.86066544568049</v>
       </c>
       <c r="K39" t="n">
-        <v>49.32747410582699</v>
+        <v>49.32747410582696</v>
       </c>
       <c r="L39" t="n">
-        <v>66.32687632368105</v>
+        <v>66.32687632368101</v>
       </c>
       <c r="M39" t="n">
-        <v>77.40033623308864</v>
+        <v>77.40033623308859</v>
       </c>
       <c r="N39" t="n">
-        <v>79.44889282129002</v>
+        <v>79.44889282128997</v>
       </c>
       <c r="O39" t="n">
-        <v>72.68021533038532</v>
+        <v>72.68021533038528</v>
       </c>
       <c r="P39" t="n">
-        <v>58.33228040360419</v>
+        <v>58.33228040360415</v>
       </c>
       <c r="Q39" t="n">
-        <v>38.99358465860849</v>
+        <v>38.99358465860846</v>
       </c>
       <c r="R39" t="n">
-        <v>18.96623091077728</v>
+        <v>18.96623091077727</v>
       </c>
       <c r="S39" t="n">
-        <v>5.674059614802323</v>
+        <v>5.67405961480232</v>
       </c>
       <c r="T39" t="n">
         <v>1.231277635419914</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02009702342905193</v>
+        <v>0.02009702342905192</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,43 +34041,43 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2560997739702136</v>
+        <v>0.2560997739702134</v>
       </c>
       <c r="H40" t="n">
-        <v>2.276959808571537</v>
+        <v>2.276959808571536</v>
       </c>
       <c r="I40" t="n">
-        <v>7.701618657213334</v>
+        <v>7.70161865721333</v>
       </c>
       <c r="J40" t="n">
-        <v>18.1062540196941</v>
+        <v>18.10625401969409</v>
       </c>
       <c r="K40" t="n">
-        <v>29.75413737581208</v>
+        <v>29.75413737581206</v>
       </c>
       <c r="L40" t="n">
-        <v>38.07505185008067</v>
+        <v>38.07505185008065</v>
       </c>
       <c r="M40" t="n">
-        <v>40.14480365971266</v>
+        <v>40.14480365971264</v>
       </c>
       <c r="N40" t="n">
-        <v>39.1902499567328</v>
+        <v>39.19024995673278</v>
       </c>
       <c r="O40" t="n">
-        <v>36.19853896080802</v>
+        <v>36.198538960808</v>
       </c>
       <c r="P40" t="n">
-        <v>30.97410357181564</v>
+        <v>30.97410357181562</v>
       </c>
       <c r="Q40" t="n">
-        <v>21.44486380036034</v>
+        <v>21.44486380036033</v>
       </c>
       <c r="R40" t="n">
-        <v>11.51517710960615</v>
+        <v>11.51517710960614</v>
       </c>
       <c r="S40" t="n">
-        <v>4.463120606371811</v>
+        <v>4.463120606371809</v>
       </c>
       <c r="T40" t="n">
         <v>1.094244488781821</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5709305148353776</v>
+        <v>0.5709305148353773</v>
       </c>
       <c r="H41" t="n">
-        <v>5.847042135057812</v>
+        <v>5.847042135057809</v>
       </c>
       <c r="I41" t="n">
-        <v>22.01079867319092</v>
+        <v>22.0107986731909</v>
       </c>
       <c r="J41" t="n">
-        <v>48.45701378350917</v>
+        <v>48.45701378350914</v>
       </c>
       <c r="K41" t="n">
-        <v>72.62450247649072</v>
+        <v>72.62450247649068</v>
       </c>
       <c r="L41" t="n">
-        <v>90.09711721988393</v>
+        <v>90.09711721988387</v>
       </c>
       <c r="M41" t="n">
-        <v>100.2504027630876</v>
+        <v>100.2504027630875</v>
       </c>
       <c r="N41" t="n">
-        <v>101.8725590883636</v>
+        <v>101.8725590883635</v>
       </c>
       <c r="O41" t="n">
-        <v>96.1953687814693</v>
+        <v>96.19536878146924</v>
       </c>
       <c r="P41" t="n">
-        <v>82.10052169647091</v>
+        <v>82.10052169647085</v>
       </c>
       <c r="Q41" t="n">
-        <v>61.65407263392892</v>
+        <v>61.65407263392888</v>
       </c>
       <c r="R41" t="n">
-        <v>35.86371395252782</v>
+        <v>35.8637139525278</v>
       </c>
       <c r="S41" t="n">
-        <v>13.01007910681118</v>
+        <v>13.01007910681117</v>
       </c>
       <c r="T41" t="n">
-        <v>2.499248328691867</v>
+        <v>2.499248328691865</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04567444118683019</v>
+        <v>0.04567444118683017</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3054747561215893</v>
+        <v>0.3054747561215891</v>
       </c>
       <c r="H42" t="n">
-        <v>2.950243039384823</v>
+        <v>2.950243039384822</v>
       </c>
       <c r="I42" t="n">
         <v>10.51744226120384</v>
       </c>
       <c r="J42" t="n">
-        <v>28.86066544568051</v>
+        <v>28.86066544568049</v>
       </c>
       <c r="K42" t="n">
-        <v>49.32747410582699</v>
+        <v>49.32747410582696</v>
       </c>
       <c r="L42" t="n">
-        <v>66.32687632368105</v>
+        <v>66.32687632368101</v>
       </c>
       <c r="M42" t="n">
-        <v>77.40033623308864</v>
+        <v>77.40033623308859</v>
       </c>
       <c r="N42" t="n">
-        <v>79.44889282129002</v>
+        <v>79.44889282128997</v>
       </c>
       <c r="O42" t="n">
-        <v>72.68021533038532</v>
+        <v>72.68021533038528</v>
       </c>
       <c r="P42" t="n">
-        <v>58.33228040360419</v>
+        <v>58.33228040360415</v>
       </c>
       <c r="Q42" t="n">
-        <v>38.99358465860849</v>
+        <v>38.99358465860846</v>
       </c>
       <c r="R42" t="n">
-        <v>18.96623091077728</v>
+        <v>18.96623091077727</v>
       </c>
       <c r="S42" t="n">
-        <v>5.674059614802323</v>
+        <v>5.67405961480232</v>
       </c>
       <c r="T42" t="n">
         <v>1.231277635419914</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02009702342905193</v>
+        <v>0.02009702342905192</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,43 +34278,43 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2560997739702136</v>
+        <v>0.2560997739702134</v>
       </c>
       <c r="H43" t="n">
-        <v>2.276959808571537</v>
+        <v>2.276959808571536</v>
       </c>
       <c r="I43" t="n">
-        <v>7.701618657213334</v>
+        <v>7.70161865721333</v>
       </c>
       <c r="J43" t="n">
-        <v>18.1062540196941</v>
+        <v>18.10625401969409</v>
       </c>
       <c r="K43" t="n">
-        <v>29.75413737581208</v>
+        <v>29.75413737581206</v>
       </c>
       <c r="L43" t="n">
-        <v>38.07505185008067</v>
+        <v>38.07505185008065</v>
       </c>
       <c r="M43" t="n">
-        <v>40.14480365971266</v>
+        <v>40.14480365971264</v>
       </c>
       <c r="N43" t="n">
-        <v>39.1902499567328</v>
+        <v>39.19024995673278</v>
       </c>
       <c r="O43" t="n">
-        <v>36.19853896080802</v>
+        <v>36.198538960808</v>
       </c>
       <c r="P43" t="n">
-        <v>30.97410357181564</v>
+        <v>30.97410357181562</v>
       </c>
       <c r="Q43" t="n">
-        <v>21.44486380036034</v>
+        <v>21.44486380036033</v>
       </c>
       <c r="R43" t="n">
-        <v>11.51517710960615</v>
+        <v>11.51517710960614</v>
       </c>
       <c r="S43" t="n">
-        <v>4.463120606371811</v>
+        <v>4.463120606371809</v>
       </c>
       <c r="T43" t="n">
         <v>1.094244488781821</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5709305148353776</v>
+        <v>0.5709305148353773</v>
       </c>
       <c r="H44" t="n">
-        <v>5.847042135057812</v>
+        <v>5.847042135057809</v>
       </c>
       <c r="I44" t="n">
-        <v>22.01079867319092</v>
+        <v>22.0107986731909</v>
       </c>
       <c r="J44" t="n">
-        <v>48.45701378350917</v>
+        <v>48.45701378350914</v>
       </c>
       <c r="K44" t="n">
-        <v>72.62450247649072</v>
+        <v>72.62450247649068</v>
       </c>
       <c r="L44" t="n">
-        <v>90.09711721988393</v>
+        <v>90.09711721988387</v>
       </c>
       <c r="M44" t="n">
-        <v>100.2504027630876</v>
+        <v>100.2504027630875</v>
       </c>
       <c r="N44" t="n">
-        <v>101.8725590883636</v>
+        <v>101.8725590883635</v>
       </c>
       <c r="O44" t="n">
-        <v>96.1953687814693</v>
+        <v>96.19536878146924</v>
       </c>
       <c r="P44" t="n">
-        <v>82.10052169647091</v>
+        <v>82.10052169647085</v>
       </c>
       <c r="Q44" t="n">
-        <v>61.65407263392892</v>
+        <v>61.65407263392888</v>
       </c>
       <c r="R44" t="n">
-        <v>35.86371395252782</v>
+        <v>35.8637139525278</v>
       </c>
       <c r="S44" t="n">
-        <v>13.01007910681118</v>
+        <v>13.01007910681117</v>
       </c>
       <c r="T44" t="n">
-        <v>2.499248328691867</v>
+        <v>2.499248328691865</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04567444118683019</v>
+        <v>0.04567444118683017</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3054747561215893</v>
+        <v>0.3054747561215891</v>
       </c>
       <c r="H45" t="n">
-        <v>2.950243039384823</v>
+        <v>2.950243039384822</v>
       </c>
       <c r="I45" t="n">
         <v>10.51744226120384</v>
       </c>
       <c r="J45" t="n">
-        <v>28.86066544568051</v>
+        <v>28.86066544568049</v>
       </c>
       <c r="K45" t="n">
-        <v>49.32747410582699</v>
+        <v>49.32747410582696</v>
       </c>
       <c r="L45" t="n">
-        <v>66.32687632368105</v>
+        <v>66.32687632368101</v>
       </c>
       <c r="M45" t="n">
-        <v>77.40033623308864</v>
+        <v>77.40033623308859</v>
       </c>
       <c r="N45" t="n">
-        <v>79.44889282129002</v>
+        <v>79.44889282128997</v>
       </c>
       <c r="O45" t="n">
-        <v>72.68021533038532</v>
+        <v>72.68021533038528</v>
       </c>
       <c r="P45" t="n">
-        <v>58.33228040360419</v>
+        <v>58.33228040360415</v>
       </c>
       <c r="Q45" t="n">
-        <v>38.99358465860849</v>
+        <v>38.99358465860846</v>
       </c>
       <c r="R45" t="n">
-        <v>18.96623091077728</v>
+        <v>18.96623091077727</v>
       </c>
       <c r="S45" t="n">
-        <v>5.674059614802323</v>
+        <v>5.67405961480232</v>
       </c>
       <c r="T45" t="n">
         <v>1.231277635419914</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02009702342905193</v>
+        <v>0.02009702342905192</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,43 +34515,43 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2560997739702136</v>
+        <v>0.2560997739702134</v>
       </c>
       <c r="H46" t="n">
-        <v>2.276959808571537</v>
+        <v>2.276959808571536</v>
       </c>
       <c r="I46" t="n">
-        <v>7.701618657213334</v>
+        <v>7.70161865721333</v>
       </c>
       <c r="J46" t="n">
-        <v>18.1062540196941</v>
+        <v>18.10625401969409</v>
       </c>
       <c r="K46" t="n">
-        <v>29.75413737581208</v>
+        <v>29.75413737581206</v>
       </c>
       <c r="L46" t="n">
-        <v>38.07505185008067</v>
+        <v>38.07505185008065</v>
       </c>
       <c r="M46" t="n">
-        <v>40.14480365971266</v>
+        <v>40.14480365971264</v>
       </c>
       <c r="N46" t="n">
-        <v>39.1902499567328</v>
+        <v>39.19024995673278</v>
       </c>
       <c r="O46" t="n">
-        <v>36.19853896080802</v>
+        <v>36.198538960808</v>
       </c>
       <c r="P46" t="n">
-        <v>30.97410357181564</v>
+        <v>30.97410357181562</v>
       </c>
       <c r="Q46" t="n">
-        <v>21.44486380036034</v>
+        <v>21.44486380036033</v>
       </c>
       <c r="R46" t="n">
-        <v>11.51517710960615</v>
+        <v>11.51517710960614</v>
       </c>
       <c r="S46" t="n">
-        <v>4.463120606371811</v>
+        <v>4.463120606371809</v>
       </c>
       <c r="T46" t="n">
         <v>1.094244488781821</v>
@@ -35146,16 +35146,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.237055564881304e-13</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.866071831289152e-12</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.404219053045087e-12</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35215,7 +35215,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -35258,16 +35258,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,16 +35331,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.866071831289152e-12</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>93.08867103610935</v>
+        <v>121.1828160792725</v>
       </c>
       <c r="K11" t="n">
         <v>315.1905348449582</v>
       </c>
       <c r="L11" t="n">
-        <v>441.4964839723549</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>413.4023389291913</v>
       </c>
       <c r="N11" t="n">
         <v>484.0254466517128</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>89.7234397215453</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,19 +35495,19 @@
         <v>435.8438916470302</v>
       </c>
       <c r="M12" t="n">
-        <v>292.242489545454</v>
+        <v>547.0867356080585</v>
       </c>
       <c r="N12" t="n">
-        <v>557.5528885806782</v>
+        <v>557.5528885806781</v>
       </c>
       <c r="O12" t="n">
         <v>468.8417817790225</v>
       </c>
       <c r="P12" t="n">
-        <v>363.4796736113792</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>198.3588672703198</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.49638274244451</v>
+        <v>60.49638274244468</v>
       </c>
       <c r="K13" t="n">
-        <v>165.5445562830198</v>
+        <v>165.54455628302</v>
       </c>
       <c r="L13" t="n">
-        <v>241.5451592983147</v>
+        <v>241.5451592983149</v>
       </c>
       <c r="M13" t="n">
-        <v>261.1769583072823</v>
+        <v>261.1769583072825</v>
       </c>
       <c r="N13" t="n">
-        <v>260.6555718992506</v>
+        <v>260.6555718992507</v>
       </c>
       <c r="O13" t="n">
-        <v>237.5035626670524</v>
+        <v>237.5035626670526</v>
       </c>
       <c r="P13" t="n">
-        <v>196.4254275128561</v>
+        <v>196.4254275128562</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.1396907902319</v>
+        <v>85.13969079023207</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>121.1828160792725</v>
+        <v>37.12347320185354</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>315.1905348449581</v>
       </c>
       <c r="L14" t="n">
-        <v>231.1311919675393</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>497.4616818066107</v>
       </c>
       <c r="N14" t="n">
-        <v>484.0254466517128</v>
+        <v>484.0254466517127</v>
       </c>
       <c r="O14" t="n">
-        <v>404.2808076429178</v>
+        <v>404.2808076429176</v>
       </c>
       <c r="P14" t="n">
-        <v>312.5620332682419</v>
+        <v>312.5620332682417</v>
       </c>
       <c r="Q14" t="n">
-        <v>157.0401874688148</v>
+        <v>157.0401874688147</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>281.1361130555125</v>
       </c>
       <c r="L15" t="n">
-        <v>435.8438916470302</v>
+        <v>435.8438916470301</v>
       </c>
       <c r="M15" t="n">
-        <v>183.6070619966795</v>
+        <v>557.5528885806781</v>
       </c>
       <c r="N15" t="n">
-        <v>557.5528885806782</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>468.8417817790225</v>
@@ -35744,7 +35744,7 @@
         <v>363.4796736113792</v>
       </c>
       <c r="Q15" t="n">
-        <v>198.3588672703198</v>
+        <v>100.8298162114865</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.49638274244464</v>
+        <v>60.49638274244465</v>
       </c>
       <c r="K16" t="n">
         <v>165.5445562830199</v>
@@ -35823,7 +35823,7 @@
         <v>196.4254275128562</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.13969079023202</v>
+        <v>85.13969079023204</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>121.1828160792725</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>315.1905348449582</v>
@@ -35890,10 +35890,10 @@
         <v>441.4964839723549</v>
       </c>
       <c r="M17" t="n">
-        <v>497.4616818066107</v>
+        <v>93.08867103610889</v>
       </c>
       <c r="N17" t="n">
-        <v>115.5098072707538</v>
+        <v>484.0254466517128</v>
       </c>
       <c r="O17" t="n">
         <v>404.2808076429178</v>
@@ -35902,7 +35902,7 @@
         <v>312.5620332682419</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>157.0401874688148</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>89.7234397215453</v>
       </c>
       <c r="K18" t="n">
-        <v>260.2569323333513</v>
+        <v>281.1361130555125</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>435.8438916470302</v>
       </c>
       <c r="M18" t="n">
-        <v>557.5528885806782</v>
+        <v>370.3003978002994</v>
       </c>
       <c r="N18" t="n">
-        <v>557.5528885806782</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>468.8417817790225</v>
@@ -35981,7 +35981,7 @@
         <v>363.4796736113792</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>198.3588672703198</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>79.65243588121233</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>315.1905348449582</v>
       </c>
       <c r="L20" t="n">
-        <v>441.4964839723549</v>
+        <v>37.12347320185307</v>
       </c>
       <c r="M20" t="n">
         <v>497.4616818066107</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>484.0254466517128</v>
       </c>
       <c r="O20" t="n">
         <v>404.2808076429178</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>89.7234397215453</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>281.1361130555125</v>
@@ -36206,19 +36206,19 @@
         <v>435.8438916470302</v>
       </c>
       <c r="M21" t="n">
-        <v>557.5528885806784</v>
+        <v>557.5528885806781</v>
       </c>
       <c r="N21" t="n">
-        <v>557.5528885806784</v>
+        <v>557.5528885806781</v>
       </c>
       <c r="O21" t="n">
-        <v>87.51607602934581</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>363.4796736113792</v>
       </c>
       <c r="Q21" t="n">
-        <v>198.3588672703198</v>
+        <v>12.11870940983088</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>121.1828160792725</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>315.1905348449582</v>
+        <v>67.85771154327225</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>441.4964839723549</v>
       </c>
       <c r="M23" t="n">
         <v>497.4616818066107</v>
@@ -36373,10 +36373,10 @@
         <v>404.2808076429178</v>
       </c>
       <c r="P23" t="n">
-        <v>228.5026903908229</v>
+        <v>312.5620332682419</v>
       </c>
       <c r="Q23" t="n">
-        <v>157.0401874688148</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>89.7234397215453</v>
       </c>
       <c r="K24" t="n">
         <v>281.1361130555125</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>435.8438916470302</v>
       </c>
       <c r="M24" t="n">
-        <v>557.5528885806782</v>
+        <v>370.3003978003003</v>
       </c>
       <c r="N24" t="n">
-        <v>536.673707858517</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>468.8417817790225</v>
@@ -36455,7 +36455,7 @@
         <v>363.4796736113792</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>198.3588672703198</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>223.029611001992</v>
+        <v>197.0438346357667</v>
       </c>
       <c r="K26" t="n">
-        <v>417.0373297676776</v>
+        <v>315.1905348449582</v>
       </c>
       <c r="L26" t="n">
         <v>543.3432788950744</v>
       </c>
       <c r="M26" t="n">
-        <v>599.3084767293302</v>
+        <v>599.3084767293303</v>
       </c>
       <c r="N26" t="n">
-        <v>585.8722415744322</v>
+        <v>585.8722415744323</v>
       </c>
       <c r="O26" t="n">
-        <v>480.1418261994127</v>
+        <v>506.1276025656373</v>
       </c>
       <c r="P26" t="n">
-        <v>312.5620332682417</v>
+        <v>414.4088281909613</v>
       </c>
       <c r="Q26" t="n">
         <v>258.8869823915343</v>
       </c>
       <c r="R26" t="n">
-        <v>47.97860523614217</v>
+        <v>47.97860523614219</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>89.7234397215453</v>
       </c>
       <c r="K27" t="n">
         <v>281.1361130555125</v>
       </c>
       <c r="L27" t="n">
-        <v>435.8438916470301</v>
+        <v>435.8438916470302</v>
       </c>
       <c r="M27" t="n">
-        <v>567.3330165464486</v>
+        <v>567.3330165464487</v>
       </c>
       <c r="N27" t="n">
-        <v>595.8788384002012</v>
+        <v>98.8995609755611</v>
       </c>
       <c r="O27" t="n">
         <v>468.8417817790225</v>
       </c>
       <c r="P27" t="n">
-        <v>154.5827031786045</v>
+        <v>363.4796736113792</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>198.3588672703198</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>223.029611001992</v>
       </c>
       <c r="K29" t="n">
-        <v>315.1905348449582</v>
+        <v>417.0373297676776</v>
       </c>
       <c r="L29" t="n">
         <v>543.3432788950744</v>
       </c>
       <c r="M29" t="n">
-        <v>599.3084767293303</v>
+        <v>497.4616818066107</v>
       </c>
       <c r="N29" t="n">
         <v>585.8722415744323</v>
@@ -36853,7 +36853,7 @@
         <v>258.8869823915343</v>
       </c>
       <c r="R29" t="n">
-        <v>47.9786052361422</v>
+        <v>47.97860523614218</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>89.72343972154528</v>
       </c>
       <c r="K30" t="n">
         <v>281.1361130555125</v>
       </c>
       <c r="L30" t="n">
-        <v>435.8438916470302</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>567.3330165464487</v>
+        <v>506.1976307688391</v>
       </c>
       <c r="N30" t="n">
         <v>595.8788384002012</v>
@@ -36926,10 +36926,10 @@
         <v>468.8417817790225</v>
       </c>
       <c r="P30" t="n">
-        <v>154.5827031786045</v>
+        <v>363.4796736113792</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>198.3588672703198</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.49638274244467</v>
+        <v>60.49638274244465</v>
       </c>
       <c r="K31" t="n">
-        <v>165.54455628302</v>
+        <v>165.5445562830199</v>
       </c>
       <c r="L31" t="n">
         <v>241.5451592983149</v>
@@ -37002,13 +37002,13 @@
         <v>260.6555718992507</v>
       </c>
       <c r="O31" t="n">
-        <v>237.5035626670519</v>
+        <v>237.5035626670525</v>
       </c>
       <c r="P31" t="n">
         <v>196.4254275128562</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.13969079023205</v>
+        <v>85.13969079023204</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>197.043834635765</v>
+        <v>223.0296110019921</v>
       </c>
       <c r="K32" t="n">
-        <v>417.0373297676777</v>
+        <v>417.0373297676778</v>
       </c>
       <c r="L32" t="n">
-        <v>543.3432788950744</v>
+        <v>517.3575025288466</v>
       </c>
       <c r="M32" t="n">
-        <v>497.4616818066107</v>
+        <v>599.3084767293303</v>
       </c>
       <c r="N32" t="n">
-        <v>585.8722415744323</v>
+        <v>585.8722415744325</v>
       </c>
       <c r="O32" t="n">
         <v>506.1276025656373</v>
       </c>
       <c r="P32" t="n">
-        <v>414.4088281909613</v>
+        <v>312.5620332682417</v>
       </c>
       <c r="Q32" t="n">
-        <v>258.8869823915343</v>
+        <v>258.8869823915344</v>
       </c>
       <c r="R32" t="n">
-        <v>47.97860523614219</v>
+        <v>47.97860523614228</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>89.72343972154528</v>
       </c>
       <c r="K33" t="n">
         <v>281.1361130555125</v>
       </c>
       <c r="L33" t="n">
-        <v>435.8438916470302</v>
+        <v>435.8438916470301</v>
       </c>
       <c r="M33" t="n">
         <v>567.3330165464487</v>
       </c>
       <c r="N33" t="n">
-        <v>595.8788384002012</v>
+        <v>98.89956097556134</v>
       </c>
       <c r="O33" t="n">
-        <v>259.9448113462475</v>
+        <v>468.8417817790225</v>
       </c>
       <c r="P33" t="n">
         <v>363.4796736113792</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>198.3588672703198</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.49638274244465</v>
+        <v>60.49638274244475</v>
       </c>
       <c r="K34" t="n">
-        <v>165.5445562830199</v>
+        <v>165.5445562830175</v>
       </c>
       <c r="L34" t="n">
-        <v>241.5451592983148</v>
+        <v>241.545159298315</v>
       </c>
       <c r="M34" t="n">
         <v>261.1769583072825</v>
       </c>
       <c r="N34" t="n">
-        <v>260.6555718992507</v>
+        <v>260.6555718992508</v>
       </c>
       <c r="O34" t="n">
-        <v>237.5035626670525</v>
+        <v>237.5035626670526</v>
       </c>
       <c r="P34" t="n">
-        <v>196.4254275128562</v>
+        <v>196.4254275128563</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.13969079023204</v>
+        <v>85.13969079023214</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>121.1828160792725</v>
+        <v>121.1828160792724</v>
       </c>
       <c r="K35" t="n">
-        <v>315.1905348449582</v>
+        <v>315.1905348449581</v>
       </c>
       <c r="L35" t="n">
-        <v>441.4964839723549</v>
+        <v>441.4964839723548</v>
       </c>
       <c r="M35" t="n">
         <v>497.4616818066107</v>
       </c>
       <c r="N35" t="n">
-        <v>484.0254466517128</v>
+        <v>484.0254466517127</v>
       </c>
       <c r="O35" t="n">
-        <v>404.2808076429178</v>
+        <v>404.2808076429177</v>
       </c>
       <c r="P35" t="n">
-        <v>312.5620332682419</v>
+        <v>312.5620332682417</v>
       </c>
       <c r="Q35" t="n">
-        <v>157.0401874688148</v>
+        <v>157.0401874688147</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>72.2391426227378</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>281.1361130555125</v>
       </c>
       <c r="L36" t="n">
-        <v>435.8438916470302</v>
+        <v>435.8438916470301</v>
       </c>
       <c r="M36" t="n">
         <v>567.3330165464487</v>
       </c>
       <c r="N36" t="n">
-        <v>595.8788384002012</v>
+        <v>188.623000697107</v>
       </c>
       <c r="O36" t="n">
         <v>468.8417817790225</v>
@@ -37403,7 +37403,7 @@
         <v>363.4796736113792</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>198.3588672703198</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37458,13 +37458,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7314985049902852</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>63.69776136030038</v>
+        <v>63.69776136030036</v>
       </c>
       <c r="L37" t="n">
         <v>139.6983643755953</v>
@@ -37476,16 +37476,16 @@
         <v>158.8087769765311</v>
       </c>
       <c r="O37" t="n">
-        <v>135.656767744333</v>
+        <v>135.6567677443329</v>
       </c>
       <c r="P37" t="n">
-        <v>94.57863259013664</v>
+        <v>94.57863259013662</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.7314985049898689</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>121.1828160792725</v>
+        <v>121.1828160792724</v>
       </c>
       <c r="K38" t="n">
-        <v>315.1905348449567</v>
+        <v>315.1905348449581</v>
       </c>
       <c r="L38" t="n">
-        <v>441.4964839723549</v>
+        <v>441.4964839723546</v>
       </c>
       <c r="M38" t="n">
         <v>497.4616818066107</v>
       </c>
       <c r="N38" t="n">
-        <v>484.0254466517128</v>
+        <v>484.0254466517127</v>
       </c>
       <c r="O38" t="n">
-        <v>404.2808076429178</v>
+        <v>404.2808076429177</v>
       </c>
       <c r="P38" t="n">
-        <v>312.5620332682419</v>
+        <v>312.5620332682417</v>
       </c>
       <c r="Q38" t="n">
-        <v>157.0401874688148</v>
+        <v>157.0401874688147</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>89.7234397215453</v>
+        <v>89.72343972154528</v>
       </c>
       <c r="K39" t="n">
         <v>281.1361130555125</v>
       </c>
       <c r="L39" t="n">
-        <v>435.8438916470302</v>
+        <v>435.8438916470301</v>
       </c>
       <c r="M39" t="n">
         <v>567.3330165464487</v>
       </c>
       <c r="N39" t="n">
-        <v>98.89956097556157</v>
+        <v>98.8995609755618</v>
       </c>
       <c r="O39" t="n">
         <v>468.8417817790225</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>63.69776136030038</v>
+        <v>63.69776136030036</v>
       </c>
       <c r="L40" t="n">
         <v>139.6983643755953</v>
@@ -37713,16 +37713,16 @@
         <v>158.8087769765311</v>
       </c>
       <c r="O40" t="n">
-        <v>135.656767744333</v>
+        <v>135.6567677443329</v>
       </c>
       <c r="P40" t="n">
-        <v>94.57863259013664</v>
+        <v>94.57863259013662</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.7314985049878019</v>
+        <v>0.7314985049898689</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>121.182816079271</v>
+        <v>121.1828160792724</v>
       </c>
       <c r="K41" t="n">
-        <v>315.1905348449582</v>
+        <v>315.1905348449581</v>
       </c>
       <c r="L41" t="n">
-        <v>441.4964839723549</v>
+        <v>441.4964839723546</v>
       </c>
       <c r="M41" t="n">
         <v>497.4616818066107</v>
       </c>
       <c r="N41" t="n">
-        <v>484.0254466517128</v>
+        <v>484.0254466517127</v>
       </c>
       <c r="O41" t="n">
-        <v>404.2808076429178</v>
+        <v>404.2808076429177</v>
       </c>
       <c r="P41" t="n">
-        <v>312.5620332682419</v>
+        <v>312.5620332682417</v>
       </c>
       <c r="Q41" t="n">
-        <v>157.0401874688148</v>
+        <v>157.0401874688147</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>89.72343972154528</v>
       </c>
       <c r="K42" t="n">
         <v>281.1361130555125</v>
       </c>
       <c r="L42" t="n">
-        <v>28.58805394393569</v>
+        <v>435.8438916470301</v>
       </c>
       <c r="M42" t="n">
         <v>567.3330165464487</v>
       </c>
       <c r="N42" t="n">
-        <v>595.8788384002012</v>
+        <v>98.8995609755618</v>
       </c>
       <c r="O42" t="n">
         <v>468.8417817790225</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>63.69776136030038</v>
+        <v>63.69776136030036</v>
       </c>
       <c r="L43" t="n">
         <v>139.6983643755953</v>
@@ -37950,16 +37950,16 @@
         <v>158.8087769765311</v>
       </c>
       <c r="O43" t="n">
-        <v>135.656767744333</v>
+        <v>135.6567677443329</v>
       </c>
       <c r="P43" t="n">
-        <v>94.57863259013664</v>
+        <v>94.57863259013662</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.7314985049878019</v>
+        <v>0.7314985049887206</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>121.1828160792725</v>
+        <v>121.1828160792724</v>
       </c>
       <c r="K44" t="n">
-        <v>315.1905348449582</v>
+        <v>315.1905348449581</v>
       </c>
       <c r="L44" t="n">
-        <v>441.4964839723549</v>
+        <v>441.4964839723548</v>
       </c>
       <c r="M44" t="n">
         <v>497.4616818066107</v>
       </c>
       <c r="N44" t="n">
-        <v>484.0254466517128</v>
+        <v>484.0254466517127</v>
       </c>
       <c r="O44" t="n">
-        <v>404.2808076429178</v>
+        <v>404.2808076429177</v>
       </c>
       <c r="P44" t="n">
-        <v>312.5620332682419</v>
+        <v>312.5620332682417</v>
       </c>
       <c r="Q44" t="n">
-        <v>157.0401874688148</v>
+        <v>157.0401874688147</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>89.7234397215453</v>
+        <v>89.72343972154528</v>
       </c>
       <c r="K45" t="n">
         <v>281.1361130555125</v>
       </c>
       <c r="L45" t="n">
-        <v>435.8438916470302</v>
+        <v>435.8438916470301</v>
       </c>
       <c r="M45" t="n">
         <v>567.3330165464487</v>
       </c>
       <c r="N45" t="n">
-        <v>98.89956097556157</v>
+        <v>98.8995609755618</v>
       </c>
       <c r="O45" t="n">
         <v>468.8417817790225</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>63.69776136030038</v>
+        <v>63.69776136030036</v>
       </c>
       <c r="L46" t="n">
         <v>139.6983643755953</v>
@@ -38187,10 +38187,10 @@
         <v>158.8087769765311</v>
       </c>
       <c r="O46" t="n">
-        <v>135.656767744333</v>
+        <v>135.6567677443329</v>
       </c>
       <c r="P46" t="n">
-        <v>94.57863259013664</v>
+        <v>94.57863259013662</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
